--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B78FC-CB4C-E64F-8014-DB17DBD042E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796544BC-DD44-1840-BE4E-37E78053C52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2330,13 +2330,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>521.69000000000005</v>
+    <v>521.57500000000005</v>
     <v>337</v>
-    <v>1.0409999999999999</v>
-    <v>5.62</v>
-    <v>1.2017E-2</v>
-    <v>-0.2</v>
-    <v>-4.2259999999999997E-4</v>
+    <v>1.0351999999999999</v>
+    <v>0.13</v>
+    <v>2.5480000000000001E-4</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -2344,25 +2342,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>474.16</v>
+    <v>511.73</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.995790543748</v>
+    <v>45065.999334478904</v>
     <v>0</v>
-    <v>465.11</v>
-    <v>96432230000</v>
+    <v>502.75</v>
+    <v>103968600000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>470.19</v>
-    <v>292.82780000000002</v>
-    <v>467.69</v>
-    <v>473.31</v>
-    <v>473.11</v>
+    <v>510</v>
+    <v>260.13420000000002</v>
+    <v>510.17</v>
+    <v>510.3</v>
     <v>203740100</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>1092083</v>
-    <v>1480258</v>
+    <v>20</v>
+    <v>1813255</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2394,8 +2391,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2416,7 +2411,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2433,7 +2427,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2444,16 +2438,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2519,19 +2510,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2576,9 +2561,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2586,9 +2568,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2950,10 +2929,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S125" sqref="S125"/>
+      <selection pane="bottomRight" activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3152,7 +3131,7 @@
         <v>7245000000</v>
       </c>
       <c r="R3" s="28">
-        <v>8860000000</v>
+        <v>8520000000</v>
       </c>
       <c r="S3" s="28">
         <v>10762000000</v>
@@ -3246,11 +3225,11 @@
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22291235334713599</v>
+        <v>0.175983436853002</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21467268623024838</v>
+        <v>0.26314553990610334</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
@@ -4050,15 +4029,15 @@
       </c>
       <c r="X16" s="30">
         <f>Y101/Q3</f>
-        <v>13.310176673567979</v>
+        <v>14.3503933747412</v>
       </c>
       <c r="Y16" s="30">
         <f>Y101/Q28</f>
-        <v>296.71455384615382</v>
+        <v>319.9033846153846</v>
       </c>
       <c r="Z16" s="31">
         <f>Y101/Q106</f>
-        <v>44.377464335020711</v>
+        <v>47.845651173492868</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8404,7 +8383,7 @@
       </c>
       <c r="Y95" s="55" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.0409999999999999</v>
+        <v>1.0351999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8523,7 +8502,7 @@
       </c>
       <c r="Y97" s="35">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.5765050000000009E-2</v>
+        <v>8.5515359999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8700,7 +8679,7 @@
       </c>
       <c r="Y100" s="33">
         <f>Y99/Y103</f>
-        <v>2.2622180297763434E-2</v>
+        <v>2.1016830413387495E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8760,7 +8739,7 @@
       </c>
       <c r="Y101" s="48" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>96432230000</v>
+        <v>103968600000</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8820,7 +8799,7 @@
       </c>
       <c r="Y102" s="33">
         <f>Y101/Y103</f>
-        <v>0.97737781970223658</v>
+        <v>0.97898316958661247</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8880,7 +8859,7 @@
       </c>
       <c r="Y103" s="37">
         <f>Y99+Y101</f>
-        <v>98664230000</v>
+        <v>106200600000</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9016,7 +8995,7 @@
       </c>
       <c r="Y105" s="26">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.4047759849385228E-2</v>
+        <v>8.3925182521558325E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9073,23 +9052,23 @@
       </c>
       <c r="R106" s="56">
         <f>Q106*(1+$Y$106)</f>
-        <v>2606450180.7373028</v>
+        <v>2607121175.8364787</v>
       </c>
       <c r="S106" s="56">
         <f t="shared" ref="S106:V106" si="17">R106*(1+$Y$106)</f>
-        <v>3126361042.1838555</v>
+        <v>3127970927.5172496</v>
       </c>
       <c r="T106" s="56">
         <f t="shared" si="17"/>
-        <v>3749978970.7547965</v>
+        <v>3752875859.425261</v>
       </c>
       <c r="U106" s="56">
         <f t="shared" si="17"/>
-        <v>4497990504.4109173</v>
+        <v>4502624078.8739634</v>
       </c>
       <c r="V106" s="56">
         <f t="shared" si="17"/>
-        <v>5395208542.649106</v>
+        <v>5402156733.9454803</v>
       </c>
       <c r="W106" s="38" t="s">
         <v>145</v>
@@ -9099,7 +9078,7 @@
       </c>
       <c r="Y106" s="40">
         <f>(SUM(R4:V4)/5)</f>
-        <v>0.19947086090073757</v>
+        <v>0.19977964833708178</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9126,7 +9105,7 @@
       <c r="U107" s="38"/>
       <c r="V107" s="41">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>102817671156.29657</v>
+        <v>103184100188.05905</v>
       </c>
       <c r="W107" s="42" t="s">
         <v>147</v>
@@ -9141,23 +9120,23 @@
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="R108" s="41">
         <f t="shared" ref="R108:T108" si="18">R107+R106</f>
-        <v>2606450180.7373028</v>
+        <v>2607121175.8364787</v>
       </c>
       <c r="S108" s="41">
         <f t="shared" si="18"/>
-        <v>3126361042.1838555</v>
+        <v>3127970927.5172496</v>
       </c>
       <c r="T108" s="41">
         <f t="shared" si="18"/>
-        <v>3749978970.7547965</v>
+        <v>3752875859.425261</v>
       </c>
       <c r="U108" s="41">
         <f>U107+U106</f>
-        <v>4497990504.4109173</v>
+        <v>4502624078.8739634</v>
       </c>
       <c r="V108" s="41">
         <f>V107+V106</f>
-        <v>108212879698.94568</v>
+        <v>108586256922.00453</v>
       </c>
       <c r="W108" s="42" t="s">
         <v>143</v>
@@ -9167,7 +9146,7 @@
       </c>
       <c r="Y108" s="46">
         <f>Y105</f>
-        <v>8.4047759849385228E-2</v>
+        <v>8.3925182521558325E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9182,7 +9161,7 @@
       </c>
       <c r="S110" s="48">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>83548542889.856552</v>
+        <v>83849936510.32103</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9209,7 +9188,7 @@
       </c>
       <c r="S113" s="48">
         <f>S110+S111-S112</f>
-        <v>85596542889.856552</v>
+        <v>85897936510.32103</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9227,7 +9206,7 @@
       </c>
       <c r="S115" s="58">
         <f>S113/S114</f>
-        <v>356.46415928272705</v>
+        <v>357.71930370684584</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9236,7 +9215,7 @@
       </c>
       <c r="S116" s="57" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>473.31</v>
+        <v>510.3</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9245,7 +9224,7 @@
       </c>
       <c r="S117" s="52">
         <f>S115/S116-1</f>
-        <v>-0.24686957959323264</v>
+        <v>-0.29900195236753713</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796544BC-DD44-1840-BE4E-37E78053C52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0B86C8-F310-D044-85D2-E6126AD992DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2330,11 +2330,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>521.57500000000005</v>
+    <v>549.55999999999995</v>
     <v>337</v>
-    <v>1.0351999999999999</v>
-    <v>0.13</v>
-    <v>2.5480000000000001E-4</v>
+    <v>1.0256000000000001</v>
+    <v>5.68</v>
+    <v>1.0681000000000001E-2</v>
+    <v>0.94</v>
+    <v>1.7489999999999999E-3</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -2342,24 +2344,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>511.73</v>
+    <v>549.55999999999995</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.999334478904</v>
+    <v>45072.998277164064</v>
     <v>0</v>
-    <v>502.75</v>
-    <v>103968600000</v>
+    <v>531.80999999999995</v>
+    <v>109502154146</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>510</v>
-    <v>260.13420000000002</v>
-    <v>510.17</v>
-    <v>510.3</v>
+    <v>534.64</v>
+    <v>271.084</v>
+    <v>531.78</v>
+    <v>537.46</v>
+    <v>538.4</v>
     <v>203740100</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>20</v>
-    <v>1813255</v>
+    <v>2134611</v>
+    <v>1855857</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2391,6 +2394,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2411,6 +2416,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2427,7 +2433,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2438,13 +2444,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2510,13 +2519,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2561,6 +2576,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2568,6 +2586,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2929,10 +2950,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S75" sqref="S75"/>
+      <selection pane="bottomRight" activeCell="R98" sqref="R98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4029,15 +4050,15 @@
       </c>
       <c r="X16" s="30">
         <f>Y101/Q3</f>
-        <v>14.3503933747412</v>
+        <v>15.114168964251208</v>
       </c>
       <c r="Y16" s="30">
         <f>Y101/Q28</f>
-        <v>319.9033846153846</v>
+        <v>336.9297050646154</v>
       </c>
       <c r="Z16" s="31">
         <f>Y101/Q106</f>
-        <v>47.845651173492868</v>
+        <v>50.392155612517257</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8383,7 +8404,7 @@
       </c>
       <c r="Y95" s="55" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.0351999999999999</v>
+        <v>1.0256000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8502,7 +8523,7 @@
       </c>
       <c r="Y97" s="35">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.5515359999999999E-2</v>
+        <v>8.510208000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8679,7 +8700,7 @@
       </c>
       <c r="Y100" s="33">
         <f>Y99/Y103</f>
-        <v>2.1016830413387495E-2</v>
+        <v>1.9975986904447372E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8739,7 +8760,7 @@
       </c>
       <c r="Y101" s="48" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>103968600000</v>
+        <v>109502154146</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8799,7 +8820,7 @@
       </c>
       <c r="Y102" s="33">
         <f>Y101/Y103</f>
-        <v>0.97898316958661247</v>
+        <v>0.98002401309555265</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8859,7 +8880,7 @@
       </c>
       <c r="Y103" s="37">
         <f>Y99+Y101</f>
-        <v>106200600000</v>
+        <v>111734154146</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8995,7 +9016,7 @@
       </c>
       <c r="Y105" s="26">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.3925182521558325E-2</v>
+        <v>8.3598910600806903E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9105,7 +9126,7 @@
       <c r="U107" s="38"/>
       <c r="V107" s="41">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>103184100188.05905</v>
+        <v>103812211360.1331</v>
       </c>
       <c r="W107" s="42" t="s">
         <v>147</v>
@@ -9136,7 +9157,7 @@
       </c>
       <c r="V108" s="41">
         <f>V107+V106</f>
-        <v>108586256922.00453</v>
+        <v>109214368094.07858</v>
       </c>
       <c r="W108" s="42" t="s">
         <v>143</v>
@@ -9146,7 +9167,7 @@
       </c>
       <c r="Y108" s="46">
         <f>Y105</f>
-        <v>8.3925182521558325E-2</v>
+        <v>8.3598910600806903E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9161,7 +9182,7 @@
       </c>
       <c r="S110" s="48">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>83849936510.32103</v>
+        <v>84388612779.770737</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9188,7 +9209,7 @@
       </c>
       <c r="S113" s="48">
         <f>S110+S111-S112</f>
-        <v>85897936510.32103</v>
+        <v>86436612779.770737</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9206,7 +9227,7 @@
       </c>
       <c r="S115" s="58">
         <f>S113/S114</f>
-        <v>357.71930370684584</v>
+        <v>359.96260439437515</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9215,7 +9236,7 @@
       </c>
       <c r="S116" s="57" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>510.3</v>
+        <v>537.46</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9224,7 +9245,7 @@
       </c>
       <c r="S117" s="52">
         <f>S115/S116-1</f>
-        <v>-0.29900195236753713</v>
+        <v>-0.33025228966923093</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0B86C8-F310-D044-85D2-E6126AD992DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3A503-AFB7-3C43-A85D-162CEF600DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,18 +550,28 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +898,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -946,12 +965,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +1022,19 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2330,13 +2356,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>549.55999999999995</v>
+    <v>576.67999999999995</v>
     <v>337</v>
-    <v>1.0256000000000001</v>
-    <v>5.68</v>
-    <v>1.0681000000000001E-2</v>
-    <v>0.94</v>
-    <v>1.7489999999999999E-3</v>
+    <v>1.0173000000000001</v>
+    <v>3.07</v>
+    <v>5.6140000000000001E-3</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -2344,25 +2368,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>549.55999999999995</v>
+    <v>550.23</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.998277164064</v>
+    <v>45099.999859513278</v>
     <v>0</v>
-    <v>531.80999999999995</v>
-    <v>109502154146</v>
+    <v>539.01</v>
+    <v>112030568787</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>534.64</v>
-    <v>271.084</v>
-    <v>531.78</v>
-    <v>537.46</v>
-    <v>538.4</v>
+    <v>543.22</v>
+    <v>280.3057</v>
+    <v>546.79999999999995</v>
+    <v>549.87</v>
     <v>203740100</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>2134611</v>
-    <v>1855857</v>
+    <v>243</v>
+    <v>1718468</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2394,8 +2417,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2416,7 +2437,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2433,7 +2453,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2444,16 +2464,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2519,19 +2536,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2576,9 +2587,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2586,9 +2594,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2950,10 +2955,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R98" sqref="R98"/>
+      <selection pane="bottomRight" activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3152,19 +3157,19 @@
         <v>7245000000</v>
       </c>
       <c r="R3" s="28">
-        <v>8520000000</v>
+        <v>8838000000</v>
       </c>
       <c r="S3" s="28">
-        <v>10762000000</v>
+        <v>10759000000</v>
       </c>
       <c r="T3" s="28">
-        <v>13105000000</v>
+        <v>13016000000</v>
       </c>
       <c r="U3" s="28">
-        <v>15332000000</v>
+        <v>15451000000</v>
       </c>
       <c r="V3" s="28">
-        <v>17971000000</v>
+        <v>18053000000</v>
       </c>
       <c r="W3" s="18" t="s">
         <v>109</v>
@@ -3246,23 +3251,23 @@
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.175983436853002</v>
+        <v>0.21987577639751543</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26314553990610334</v>
+        <v>0.21735686806969912</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21771046273926786</v>
+        <v>0.20977786039594748</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16993513925982451</v>
+        <v>0.18707744314689623</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17212366292721115</v>
+        <v>0.16840333958967046</v>
       </c>
       <c r="W4" s="17">
         <f>(Q4+P4+O4)/3</f>
@@ -4048,20 +4053,20 @@
         <f>(Q35+P35+O35+N35+M35)/5</f>
         <v>3.5956121281664088E-2</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="64">
         <f>Y101/Q3</f>
-        <v>15.114168964251208</v>
-      </c>
-      <c r="Y16" s="30">
+        <v>15.463156492339545</v>
+      </c>
+      <c r="Y16" s="64">
         <f>Y101/Q28</f>
-        <v>336.9297050646154</v>
-      </c>
-      <c r="Z16" s="31">
+        <v>344.70944242153848</v>
+      </c>
+      <c r="Z16" s="65">
         <f>Y101/Q106</f>
-        <v>50.392155612517257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+        <v>51.555715042337781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4169,8 +4174,17 @@
       <c r="W18" s="18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="X18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4222,12 +4236,39 @@
       <c r="Q19" s="10">
         <v>859000000</v>
       </c>
-      <c r="W19" s="54">
+      <c r="R19" s="59">
+        <v>2853000000</v>
+      </c>
+      <c r="S19" s="59">
+        <v>3531000000</v>
+      </c>
+      <c r="T19" s="59">
+        <v>4567000000</v>
+      </c>
+      <c r="U19" s="59">
+        <v>5808000000</v>
+      </c>
+      <c r="V19" s="59">
+        <v>7237000000</v>
+      </c>
+      <c r="W19" s="52">
         <f>Q40-Q56-Q61</f>
         <v>2048000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="64">
+        <f>Y101/R3</f>
+        <v>12.676009140868976</v>
+      </c>
+      <c r="Y19" s="64">
+        <f>Y101/R28</f>
+        <v>57.042041133910388</v>
+      </c>
+      <c r="Z19" s="65">
+        <f>Y101/R105</f>
+        <v>44.68710362465098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -4292,8 +4333,28 @@
         <f t="shared" ref="Q20" si="5">(Q19/P19)-1</f>
         <v>0.14686248331108143</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R20" s="16">
+        <f t="shared" ref="R20" si="6">(R19/Q19)-1</f>
+        <v>2.3213038416763681</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" ref="S20" si="7">(S19/R19)-1</f>
+        <v>0.2376445846477393</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" ref="T20" si="8">(T19/S19)-1</f>
+        <v>0.29340130274709719</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" ref="U20" si="9">(U19/T19)-1</f>
+        <v>0.27173199036566675</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" ref="V20" si="10">(V19/U19)-1</f>
+        <v>0.24603994490358128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4345,8 +4406,28 @@
       <c r="Q21" s="2">
         <v>0.1186</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R21" s="61">
+        <f>R19/R3</f>
+        <v>0.32281059063136458</v>
+      </c>
+      <c r="S21" s="61">
+        <f t="shared" ref="S21:V21" si="11">S19/S3</f>
+        <v>0.32819035226322146</v>
+      </c>
+      <c r="T21" s="61">
+        <f t="shared" si="11"/>
+        <v>0.35087584511370623</v>
+      </c>
+      <c r="U21" s="61">
+        <f t="shared" si="11"/>
+        <v>0.37589800012944147</v>
+      </c>
+      <c r="V21" s="61">
+        <f t="shared" si="11"/>
+        <v>0.40087520079765138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4399,7 +4480,7 @@
         <v>355000000</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4452,7 +4533,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4505,7 +4586,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4558,7 +4639,7 @@
         <v>399000000</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4611,7 +4692,7 @@
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4664,7 +4745,7 @@
         <v>74000000</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4716,8 +4797,23 @@
       <c r="Q28" s="11">
         <v>325000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="62">
+        <v>1964000000</v>
+      </c>
+      <c r="S28" s="62">
+        <v>2457000000</v>
+      </c>
+      <c r="T28" s="62">
+        <v>3055000000</v>
+      </c>
+      <c r="U28" s="62">
+        <v>3828000000</v>
+      </c>
+      <c r="V28" s="62">
+        <v>4388000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -4735,55 +4831,75 @@
         <v>4.0347457627118644</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:O29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:O29" si="12">(F28/E28)-1</f>
         <v>-1.330920720417438</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-4.7993896236012201</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.97354610688658028</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.4337521028924947</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.10613366631918697</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.2769395139749831</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.66992324105142931</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.82093475491182188</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-24.468319352905933</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.81090892263897441</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="7">(P28/O28)-1</f>
+        <f t="shared" ref="P29" si="13">(P28/O28)-1</f>
         <v>0.94087913386159006</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="8">(Q28/P28)-1</f>
+        <f t="shared" ref="Q29" si="14">(Q28/P28)-1</f>
         <v>0.41304347826086962</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R29" s="16">
+        <f t="shared" ref="R29" si="15">(R28/Q28)-1</f>
+        <v>5.0430769230769235</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" ref="S29" si="16">(S28/R28)-1</f>
+        <v>0.25101832993890016</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" ref="T29" si="17">(T28/S28)-1</f>
+        <v>0.24338624338624348</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" ref="U29" si="18">(U28/T28)-1</f>
+        <v>0.25302782324058914</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" ref="V29" si="19">(V28/U28)-1</f>
+        <v>0.14629049111807735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4835,8 +4951,28 @@
       <c r="Q30" s="2">
         <v>4.4900000000000002E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R30" s="60">
+        <f>R28/R3</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="S30" s="60">
+        <f t="shared" ref="S30:V30" si="20">S28/S3</f>
+        <v>0.2283669486011711</v>
+      </c>
+      <c r="T30" s="60">
+        <f t="shared" si="20"/>
+        <v>0.23471112476951445</v>
+      </c>
+      <c r="U30" s="60">
+        <f t="shared" si="20"/>
+        <v>0.24775095463076824</v>
+      </c>
+      <c r="V30" s="60">
+        <f t="shared" si="20"/>
+        <v>0.24306209494266881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4888,8 +5024,23 @@
       <c r="Q31" s="12">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="R31" s="63">
+        <v>9.64</v>
+      </c>
+      <c r="S31" s="63">
+        <v>12.06</v>
+      </c>
+      <c r="T31" s="63">
+        <v>15</v>
+      </c>
+      <c r="U31" s="63">
+        <v>18.79</v>
+      </c>
+      <c r="V31" s="63">
+        <v>21.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5058,59 +5209,59 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:O35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="21">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-0.79115891936824601</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.9418030836526416</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.8322056188539062</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>7.34015775070989E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>7.1212282561525703E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5.6691094419137916E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.0367104336960551E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>3.8968444663107518E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.10895367055804223</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.6644965343798645E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" ref="P35" si="10">(P34-O34)/O34</f>
+        <f t="shared" ref="P35" si="22">(P34-O34)/O34</f>
         <v>2.5780578630764826E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" ref="Q35" si="11">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35" si="23">(Q34-P34)/P34</f>
         <v>2.6354679802955664E-3</v>
       </c>
     </row>
@@ -7451,67 +7602,67 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Q80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:Q80" si="24">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.2578180895012578E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.1886529722261199E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.11463120404411764</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.15443541740256683</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.22608755528793678</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.25630842980467039</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.22839052925071537</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.20386585591709577</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.20850569760381721</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.19136166906087296</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.19260008443441773</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.19182496607869742</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.19337474120082815</v>
       </c>
     </row>
@@ -7673,10 +7824,10 @@
       <c r="Q83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X83" s="61" t="s">
+      <c r="X83" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="Y83" s="62"/>
+      <c r="Y83" s="69"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7730,10 +7881,10 @@
       <c r="Q84" s="1">
         <v>172000000</v>
       </c>
-      <c r="X84" s="63" t="s">
+      <c r="X84" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="Y84" s="64"/>
+      <c r="Y84" s="71"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7967,10 +8118,10 @@
       <c r="Q88" s="1">
         <v>-550000000</v>
       </c>
-      <c r="X88" s="32" t="s">
+      <c r="X88" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="Y88" s="33">
+      <c r="Y88" s="31">
         <f>Y85/(Y86+Y87)</f>
         <v>1.2096774193548387E-2</v>
       </c>
@@ -7980,67 +8131,67 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:Q89" si="13">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Q89" si="25">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.5544041450777202E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.655750190403656E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>9.4267117151153379E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.17260537027310924</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.13027434357706347</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.9668836429750811E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.7004216891434935E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.5915867021739455E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.7862377433102301E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.6039797364014944E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.6548713356145479E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>9.2782052110373658E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.6485753052917235E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.5914423740510703E-2</v>
       </c>
       <c r="X89" s="23" t="s">
@@ -8163,10 +8314,10 @@
       <c r="Q91" s="1">
         <v>-4205000000</v>
       </c>
-      <c r="X91" s="32" t="s">
+      <c r="X91" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="Y91" s="33">
+      <c r="Y91" s="31">
         <f>Y89/Y90</f>
         <v>0.18546365914786966</v>
       </c>
@@ -8223,10 +8374,10 @@
       <c r="Q92" s="1">
         <v>2245000000</v>
       </c>
-      <c r="X92" s="34" t="s">
+      <c r="X92" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="Y92" s="35">
+      <c r="Y92" s="33">
         <f>Y88*(1-Y91)</f>
         <v>9.853262187727382E-3</v>
       </c>
@@ -8283,10 +8434,10 @@
       <c r="Q93" s="1">
         <v>18000000</v>
       </c>
-      <c r="X93" s="65" t="s">
+      <c r="X93" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="Y93" s="66"/>
+      <c r="Y93" s="73"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8343,7 +8494,7 @@
       <c r="X94" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="Y94" s="36">
+      <c r="Y94" s="34">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -8402,9 +8553,9 @@
       <c r="X95" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="Y95" s="55" cm="1">
+      <c r="Y95" s="53" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.0256000000000001</v>
+        <v>1.0173000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8462,7 +8613,7 @@
       <c r="X96" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="Y96" s="36">
+      <c r="Y96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8518,12 +8669,12 @@
       <c r="Q97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X97" s="34" t="s">
+      <c r="X97" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Y97" s="35">
+      <c r="Y97" s="33">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.510208000000001E-2</v>
+        <v>8.4744765E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8578,10 +8729,10 @@
       <c r="Q98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X98" s="65" t="s">
+      <c r="X98" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="Y98" s="66"/>
+      <c r="Y98" s="73"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8695,12 +8846,12 @@
       <c r="Q100" s="10">
         <v>-344000000</v>
       </c>
-      <c r="X100" s="32" t="s">
+      <c r="X100" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="Y100" s="33">
+      <c r="Y100" s="31">
         <f>Y99/Y103</f>
-        <v>1.9975986904447372E-2</v>
+        <v>1.9533956077608692E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8758,9 +8909,9 @@
       <c r="X101" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="Y101" s="48" cm="1">
+      <c r="Y101" s="46" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>109502154146</v>
+        <v>112030568787</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8815,12 +8966,12 @@
       <c r="Q102" s="10">
         <v>-257000000</v>
       </c>
-      <c r="X102" s="32" t="s">
+      <c r="X102" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="Y102" s="33">
+      <c r="Y102" s="31">
         <f>Y101/Y103</f>
-        <v>0.98002401309555265</v>
+        <v>0.98046604392239134</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8875,12 +9026,12 @@
       <c r="Q103" s="1">
         <v>1732000000</v>
       </c>
-      <c r="X103" s="34" t="s">
+      <c r="X103" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="Y103" s="37">
+      <c r="Y103" s="35">
         <f>Y99+Y101</f>
-        <v>111734154146</v>
+        <v>114262568787</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8935,10 +9086,10 @@
       <c r="Q104" s="11">
         <v>1475000000</v>
       </c>
-      <c r="X104" s="65" t="s">
+      <c r="X104" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="Y104" s="66"/>
+      <c r="Y104" s="73"/>
     </row>
     <row r="105" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8966,57 +9117,67 @@
         <v>-0.76683487036714804</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:O105" si="14">(H106/G106)-1</f>
+        <f t="shared" ref="H105:O105" si="26">(H106/G106)-1</f>
         <v>2.9440298507462686</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2.1985241248817409</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.6722353024692089</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.84234038785088106</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>12.638265607009464</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.15769131773208822</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.59791507700626267</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.50723014812036182</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" ref="P105" si="15">(P106/O106)-1</f>
+        <f t="shared" ref="P105" si="27">(P106/O106)-1</f>
         <v>0.32340582032698162</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="16">(Q106/P106)-1</f>
+        <f t="shared" ref="Q105" si="28">(Q106/P106)-1</f>
         <v>0.21261160714285721</v>
       </c>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
+      <c r="R105" s="57">
+        <v>2507000000</v>
+      </c>
+      <c r="S105" s="57">
+        <v>3126000000</v>
+      </c>
+      <c r="T105" s="57">
+        <v>4064000000</v>
+      </c>
+      <c r="U105" s="57">
+        <v>5090000000</v>
+      </c>
+      <c r="V105" s="57">
+        <v>6521000000</v>
+      </c>
       <c r="W105" s="15"/>
       <c r="X105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="Y105" s="26">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.3598910600806903E-2</v>
+        <v>8.3281837673478951E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9071,35 +9232,35 @@
       <c r="Q106" s="1">
         <v>2173000000</v>
       </c>
-      <c r="R106" s="56">
+      <c r="R106" s="54">
         <f>Q106*(1+$Y$106)</f>
-        <v>2607121175.8364787</v>
-      </c>
-      <c r="S106" s="56">
-        <f t="shared" ref="S106:V106" si="17">R106*(1+$Y$106)</f>
-        <v>3127970927.5172496</v>
-      </c>
-      <c r="T106" s="56">
-        <f t="shared" si="17"/>
-        <v>3752875859.425261</v>
-      </c>
-      <c r="U106" s="56">
-        <f t="shared" si="17"/>
-        <v>4502624078.8739634</v>
-      </c>
-      <c r="V106" s="56">
-        <f t="shared" si="17"/>
-        <v>5402156733.9454803</v>
-      </c>
-      <c r="W106" s="38" t="s">
+        <v>2608682713.5908418</v>
+      </c>
+      <c r="S106" s="54">
+        <f t="shared" ref="S106:V106" si="29">R106*(1+$Y$106)</f>
+        <v>3131719052.0882092</v>
+      </c>
+      <c r="T106" s="54">
+        <f t="shared" si="29"/>
+        <v>3759623265.0739112</v>
+      </c>
+      <c r="U106" s="54">
+        <f t="shared" si="29"/>
+        <v>4513421178.6526794</v>
+      </c>
+      <c r="V106" s="54">
+        <f t="shared" si="29"/>
+        <v>5418354260.4261608</v>
+      </c>
+      <c r="W106" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="X106" s="39" t="s">
+      <c r="X106" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="Y106" s="40">
+      <c r="Y106" s="38">
         <f>(SUM(R4:V4)/5)</f>
-        <v>0.19977964833708178</v>
+        <v>0.20049825751994574</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9120,139 +9281,139 @@
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
       <c r="Q107" s="13"/>
-      <c r="R107" s="38"/>
-      <c r="S107" s="38"/>
-      <c r="T107" s="38"/>
-      <c r="U107" s="38"/>
-      <c r="V107" s="41">
-        <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>103812211360.1331</v>
-      </c>
-      <c r="W107" s="42" t="s">
+      <c r="R107" s="36"/>
+      <c r="S107" s="36"/>
+      <c r="T107" s="36"/>
+      <c r="U107" s="36"/>
+      <c r="V107" s="58">
+        <f>V105*(1+Y107)/(Y108-Y107)</f>
+        <v>126058527507.26735</v>
+      </c>
+      <c r="W107" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="X107" s="43" t="s">
+      <c r="X107" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="Y107" s="44">
+      <c r="Y107" s="42">
         <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R108" s="41">
-        <f t="shared" ref="R108:T108" si="18">R107+R106</f>
-        <v>2607121175.8364787</v>
-      </c>
-      <c r="S108" s="41">
-        <f t="shared" si="18"/>
-        <v>3127970927.5172496</v>
-      </c>
-      <c r="T108" s="41">
-        <f t="shared" si="18"/>
-        <v>3752875859.425261</v>
-      </c>
-      <c r="U108" s="41">
+      <c r="R108" s="39">
+        <f t="shared" ref="R108:T108" si="30">R107+R106</f>
+        <v>2608682713.5908418</v>
+      </c>
+      <c r="S108" s="39">
+        <f t="shared" si="30"/>
+        <v>3131719052.0882092</v>
+      </c>
+      <c r="T108" s="39">
+        <f t="shared" si="30"/>
+        <v>3759623265.0739112</v>
+      </c>
+      <c r="U108" s="39">
         <f>U107+U106</f>
-        <v>4502624078.8739634</v>
-      </c>
-      <c r="V108" s="41">
-        <f>V107+V106</f>
-        <v>109214368094.07858</v>
-      </c>
-      <c r="W108" s="42" t="s">
+        <v>4513421178.6526794</v>
+      </c>
+      <c r="V108" s="58">
+        <f>V107+V105</f>
+        <v>132579527507.26735</v>
+      </c>
+      <c r="W108" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="X108" s="45" t="s">
+      <c r="X108" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="Y108" s="46">
+      <c r="Y108" s="44">
         <f>Y105</f>
-        <v>8.3598910600806903E-2</v>
+        <v>8.3281837673478951E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="59" t="s">
+      <c r="R109" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="S109" s="60"/>
+      <c r="S109" s="67"/>
     </row>
     <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R110" s="47" t="s">
+      <c r="R110" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="S110" s="48">
+      <c r="S110" s="46">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>84388612779.770737</v>
+        <v>100184637274.73373</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="47" t="s">
+      <c r="R111" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="S111" s="48">
+      <c r="S111" s="46">
         <f>Q40</f>
         <v>4280000000</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="47" t="s">
+      <c r="R112" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="S112" s="48">
+      <c r="S112" s="46">
         <f>Y99</f>
         <v>2232000000</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="47" t="s">
+      <c r="R113" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="S113" s="48">
+      <c r="S113" s="46">
         <f>S110+S111-S112</f>
-        <v>86436612779.770737</v>
+        <v>102232637274.73373</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="47" t="s">
+      <c r="R114" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="S114" s="49">
+      <c r="S114" s="47">
         <f>Q34*(1+(5*W16))</f>
         <v>240126645.72531751</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="50" t="s">
+      <c r="R115" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="S115" s="58">
+      <c r="S115" s="56">
         <f>S113/S114</f>
-        <v>359.96260439437515</v>
+        <v>425.74466055582326</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="47" t="s">
+      <c r="R116" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="S116" s="57" cm="1">
+      <c r="S116" s="55" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>537.46</v>
+        <v>549.87</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="51" t="s">
+      <c r="R117" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="S117" s="52">
+      <c r="S117" s="50">
         <f>S115/S116-1</f>
-        <v>-0.33025228966923093</v>
+        <v>-0.22573579108548703</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="51" t="s">
+      <c r="R118" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="S118" s="53" t="str">
+      <c r="S118" s="51" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3A503-AFB7-3C43-A85D-162CEF600DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10491B97-8634-554C-B9DA-3AF36C0C644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2358,9 +2358,9 @@
     <v>Powered by Refinitiv</v>
     <v>576.67999999999995</v>
     <v>337</v>
-    <v>1.0173000000000001</v>
-    <v>3.07</v>
-    <v>5.6140000000000001E-3</v>
+    <v>1.0199</v>
+    <v>1.99</v>
+    <v>3.699E-3</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -2368,24 +2368,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>550.23</v>
+    <v>545.08000000000004</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999859513278</v>
+    <v>45104.995955346873</v>
     <v>0</v>
-    <v>539.01</v>
-    <v>112030568787</v>
+    <v>535.01</v>
+    <v>109606100000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>543.22</v>
-    <v>280.3057</v>
-    <v>546.79999999999995</v>
-    <v>549.87</v>
+    <v>541.14</v>
+    <v>275.25389999999999</v>
+    <v>537.97</v>
+    <v>539.96</v>
     <v>203740100</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>243</v>
-    <v>1718468</v>
+    <v>854083</v>
+    <v>1553152</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2955,10 +2955,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R102" sqref="R102"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4055,15 +4055,15 @@
       </c>
       <c r="X16" s="64">
         <f>Y101/Q3</f>
-        <v>15.463156492339545</v>
+        <v>15.128516218081435</v>
       </c>
       <c r="Y16" s="64">
         <f>Y101/Q28</f>
-        <v>344.70944242153848</v>
+        <v>337.24953846153846</v>
       </c>
       <c r="Z16" s="65">
         <f>Y101/Q106</f>
-        <v>51.555715042337781</v>
+        <v>50.439990796134374</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4257,15 +4257,15 @@
       </c>
       <c r="X19" s="64">
         <f>Y101/R3</f>
-        <v>12.676009140868976</v>
+        <v>12.401685901787735</v>
       </c>
       <c r="Y19" s="64">
         <f>Y101/R28</f>
-        <v>57.042041133910388</v>
+        <v>55.807586558044804</v>
       </c>
       <c r="Z19" s="65">
         <f>Y101/R105</f>
-        <v>44.68710362465098</v>
+        <v>43.720023932987637</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="Y95" s="53" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.0173000000000001</v>
+        <v>1.0199</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="Y97" s="33">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.4744765E-2</v>
+        <v>8.485669500000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="Y100" s="31">
         <f>Y99/Y103</f>
-        <v>1.9533956077608692E-2</v>
+        <v>1.9957420592803348E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="Y101" s="46" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>112030568787</v>
+        <v>109606100000</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="Y102" s="31">
         <f>Y101/Y103</f>
-        <v>0.98046604392239134</v>
+        <v>0.98004257940719663</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="Y103" s="35">
         <f>Y99+Y101</f>
-        <v>114262568787</v>
+        <v>111838100000</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="Y105" s="26">
         <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.3281837673478951E-2</v>
+        <v>8.3359819945461405E-2</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9287,7 +9287,7 @@
       <c r="U107" s="36"/>
       <c r="V107" s="58">
         <f>V105*(1+Y107)/(Y108-Y107)</f>
-        <v>126058527507.26735</v>
+        <v>125874300304.33025</v>
       </c>
       <c r="W107" s="40" t="s">
         <v>147</v>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="V108" s="58">
         <f>V107+V105</f>
-        <v>132579527507.26735</v>
+        <v>132395300304.33025</v>
       </c>
       <c r="W108" s="40" t="s">
         <v>143</v>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="Y108" s="44">
         <f>Y105</f>
-        <v>8.3281837673478951E-2</v>
+        <v>8.3359819945461405E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="S110" s="46">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>100184637274.73373</v>
+        <v>100027066270.57739</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="S113" s="46">
         <f>S110+S111-S112</f>
-        <v>102232637274.73373</v>
+        <v>102075066270.57739</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="S115" s="56">
         <f>S113/S114</f>
-        <v>425.74466055582326</v>
+        <v>425.08846097547104</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="S116" s="55" cm="1">
         <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>549.87</v>
+        <v>539.96</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="S117" s="50">
         <f>S115/S116-1</f>
-        <v>-0.22573579108548703</v>
+        <v>-0.21274083084770912</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10491B97-8634-554C-B9DA-3AF36C0C644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BF586A-5567-AC4E-BF1D-5FE7F32DB5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -559,19 +553,41 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -734,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -840,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -912,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -954,109 +917,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1109,9 +1056,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>NOW</a:t>
+              <a:t>ServiceNow</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1148,10 +1094,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7067002055033538E-2"/>
-          <c:y val="0.1254326701528721"/>
-          <c:w val="0.86132009202998994"/>
-          <c:h val="0.72222576185610388"/>
+          <c:x val="9.4073089700996662E-2"/>
+          <c:y val="0.14371731594775142"/>
+          <c:w val="0.83815282392026591"/>
+          <c:h val="0.64966391956107528"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1205,6 +1151,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$Q$3</c:f>
@@ -1264,7 +1267,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF08-B24A-8FEF-73A0026D024C}"/>
+              <c16:uniqueId val="{00000000-D627-2549-8115-C634DEE3FDDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1273,11 +1276,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1315,66 +1318,123 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$Q$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-3800000</c:v>
+                  <c:v>-4000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-5900000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5700000</c:v>
+                  <c:v>-5900000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-27830000</c:v>
+                  <c:v>-29705000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12638000</c:v>
+                  <c:v>9830000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20870000</c:v>
+                  <c:v>-37348000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-42115000</c:v>
+                  <c:v>-73708000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-105980000</c:v>
+                  <c:v>-179387000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-103227000</c:v>
+                  <c:v>-198426000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-335476000</c:v>
+                  <c:v>-451804000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15494000</c:v>
+                  <c:v>-149130000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>160651000</c:v>
+                  <c:v>-26704000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>350976000</c:v>
+                  <c:v>626698000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>518312000</c:v>
+                  <c:v>118503000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>749000000</c:v>
+                  <c:v>230000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>859000000</c:v>
+                  <c:v>325000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF08-B24A-8FEF-73A0026D024C}"/>
+              <c16:uniqueId val="{00000001-D627-2549-8115-C634DEE3FDDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1383,11 +1443,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1425,9 +1485,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$Q$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$Q$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1484,7 +1601,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BF08-B24A-8FEF-73A0026D024C}"/>
+              <c16:uniqueId val="{00000002-D627-2549-8115-C634DEE3FDDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,11 +1615,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="944413104"/>
-        <c:axId val="944414832"/>
+        <c:axId val="1010723727"/>
+        <c:axId val="1020560399"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="944413104"/>
+        <c:axId val="1010723727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1647,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1542,7 +1659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944414832"/>
+        <c:crossAx val="1020560399"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,7 +1667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="944414832"/>
+        <c:axId val="1020560399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1599,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944413104"/>
+        <c:crossAx val="1010723727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,10 +1734,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35496476452666753"/>
-          <c:y val="0.91221754723407689"/>
-          <c:w val="0.30330444518106042"/>
-          <c:h val="5.2159043096712147E-2"/>
+          <c:x val="0.34498579538022861"/>
+          <c:y val="0.8935903675305894"/>
+          <c:w val="0.31534402385748295"/>
+          <c:h val="5.9762402148711001E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2200,22 +2317,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D5632F-0144-0D3A-4768-5334D59BECAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988546E8-A38E-3DF9-A0FE-5081B0AE5561}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,6 +2351,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2358,9 +2529,9 @@
     <v>Powered by Refinitiv</v>
     <v>576.67999999999995</v>
     <v>337</v>
-    <v>1.0199</v>
-    <v>1.99</v>
-    <v>3.699E-3</v>
+    <v>1.0207999999999999</v>
+    <v>12.62</v>
+    <v>2.2821999999999999E-2</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -2368,24 +2539,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>545.08000000000004</v>
+    <v>565.85</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45104.995955346873</v>
+    <v>45117.999827522654</v>
     <v>0</v>
-    <v>535.01</v>
-    <v>109606100000</v>
+    <v>553</v>
+    <v>115235400560</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>541.14</v>
-    <v>275.25389999999999</v>
-    <v>537.97</v>
-    <v>539.96</v>
+    <v>553</v>
+    <v>288.32429999999999</v>
+    <v>552.98</v>
+    <v>565.6</v>
     <v>203740100</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>854083</v>
-    <v>1553152</v>
+    <v>138</v>
+    <v>1249515</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2538,10 +2709,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -2955,10 +3126,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3020,19 +3191,19 @@
       <c r="Q1" s="8">
         <v>2022</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="23">
         <v>2023</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="23">
         <v>2024</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="23">
         <v>2025</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="23">
         <v>2026</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3041,61 +3212,61 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -3156,118 +3327,118 @@
       <c r="Q3" s="1">
         <v>7245000000</v>
       </c>
-      <c r="R3" s="28">
-        <v>8838000000</v>
-      </c>
-      <c r="S3" s="28">
-        <v>10759000000</v>
-      </c>
-      <c r="T3" s="28">
-        <v>13016000000</v>
-      </c>
-      <c r="U3" s="28">
-        <v>15451000000</v>
-      </c>
-      <c r="V3" s="28">
-        <v>18053000000</v>
+      <c r="R3" s="24">
+        <v>8903000000</v>
+      </c>
+      <c r="S3" s="24">
+        <v>10820000000</v>
+      </c>
+      <c r="T3" s="24">
+        <v>13112000000</v>
+      </c>
+      <c r="U3" s="24">
+        <v>15736000000</v>
+      </c>
+      <c r="V3" s="24">
+        <v>18565000000</v>
       </c>
       <c r="W3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="63">
         <f>(C3/B3)-1</f>
         <v>3.6315789473684212</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="63">
         <f>(D3/C3)-1</f>
         <v>1.1931818181818183</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="63">
         <f>(E3/D3)-1</f>
         <v>1.2450259067357514</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="63">
         <f t="shared" ref="F4:V4" si="0">(F3/E3)-1</f>
         <v>1.138083039073138</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="63">
         <f t="shared" si="0"/>
         <v>1.6307142625835214</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>0.74242548581932777</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0.60735429176969258</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="63">
         <f t="shared" si="0"/>
         <v>0.4730947912500385</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="63">
         <f t="shared" si="0"/>
         <v>0.38293451883677454</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="63">
         <f t="shared" si="0"/>
         <v>0.39015313053527723</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="63">
         <f t="shared" si="0"/>
         <v>0.34960212640699084</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="63">
         <f t="shared" si="0"/>
         <v>0.32643965691716081</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="63">
         <f t="shared" si="0"/>
         <v>0.306044294405591</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="63">
         <f t="shared" si="0"/>
         <v>0.30457370797197192</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="63">
         <f t="shared" si="0"/>
         <v>0.22879918588873815</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21987577639751543</v>
+        <v>0.22884748102139407</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21735686806969912</v>
+        <v>0.21532067842300351</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20977786039594748</v>
+        <v>0.211829944547135</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18707744314689623</v>
+        <v>0.20012202562538128</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16840333958967046</v>
+        <v>0.17977885104219626</v>
       </c>
       <c r="W4" s="17">
         <f>(Q4+P4+O4)/3</f>
@@ -3282,7 +3453,7 @@
         <v>0.18100456316116176</v>
       </c>
       <c r="Z4" s="17">
-        <f>(Q105+P105+O105)/3</f>
+        <f>(Q106+P106+O106)/3</f>
         <v>0.3477491918634002</v>
       </c>
     </row>
@@ -3392,16 +3563,16 @@
         <v>5672000000</v>
       </c>
       <c r="W6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="Z6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3469,7 +3640,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="Z7" s="20">
-        <f>Q106/Q3</f>
+        <f>Q107/Q3</f>
         <v>0.29993098688750863</v>
       </c>
     </row>
@@ -3528,7 +3699,7 @@
     </row>
     <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3595,16 +3766,16 @@
         <v>0.24403036576949622</v>
       </c>
       <c r="W9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Z9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3681,13 +3852,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>19334000</v>
@@ -3782,21 +3953,21 @@
         <v>3549000000</v>
       </c>
       <c r="W12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="Z12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3893,43 +4064,43 @@
         <v>-100000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -3985,16 +4156,16 @@
         <v>5317000000</v>
       </c>
       <c r="W15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="X15" s="19" t="s">
+      <c r="Z15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4049,21 +4220,21 @@
       <c r="Q16" s="1">
         <v>6890000000</v>
       </c>
-      <c r="W16" s="29">
+      <c r="W16" s="25">
         <f>(Q35+P35+O35+N35+M35)/5</f>
         <v>3.5956121281664088E-2</v>
       </c>
-      <c r="X16" s="64">
+      <c r="X16" s="37">
         <f>Y101/Q3</f>
-        <v>15.128516218081435</v>
-      </c>
-      <c r="Y16" s="64">
+        <v>15.905507323671497</v>
+      </c>
+      <c r="Y16" s="37">
         <f>Y101/Q28</f>
-        <v>337.24953846153846</v>
-      </c>
-      <c r="Z16" s="65">
-        <f>Y101/Q106</f>
-        <v>50.439990796134374</v>
+        <v>354.57046326153846</v>
+      </c>
+      <c r="Z16" s="38">
+        <f>Y101/Q107</f>
+        <v>53.030557091578466</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4074,16 +4245,16 @@
         <v>200000</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>1226000</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1">
         <v>1604000</v>
@@ -4124,10 +4295,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>200000</v>
@@ -4172,16 +4343,16 @@
         <v>433000000</v>
       </c>
       <c r="W18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z18" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y18" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z18" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4236,41 +4407,41 @@
       <c r="Q19" s="10">
         <v>859000000</v>
       </c>
-      <c r="R19" s="59">
-        <v>2853000000</v>
-      </c>
-      <c r="S19" s="59">
-        <v>3531000000</v>
-      </c>
-      <c r="T19" s="59">
-        <v>4567000000</v>
-      </c>
-      <c r="U19" s="59">
-        <v>5808000000</v>
-      </c>
-      <c r="V19" s="59">
-        <v>7237000000</v>
-      </c>
-      <c r="W19" s="52">
+      <c r="R19" s="32">
+        <v>2906000000</v>
+      </c>
+      <c r="S19" s="32">
+        <v>3622000000</v>
+      </c>
+      <c r="T19" s="32">
+        <v>4566000000</v>
+      </c>
+      <c r="U19" s="32">
+        <v>6267000000</v>
+      </c>
+      <c r="V19" s="32">
+        <v>7858000000</v>
+      </c>
+      <c r="W19" s="28">
         <f>Q40-Q56-Q61</f>
         <v>2048000000</v>
       </c>
-      <c r="X19" s="64">
+      <c r="X19" s="37">
         <f>Y101/R3</f>
-        <v>12.401685901787735</v>
-      </c>
-      <c r="Y19" s="64">
+        <v>12.943434860159497</v>
+      </c>
+      <c r="Y19" s="37">
         <f>Y101/R28</f>
-        <v>55.807586558044804</v>
-      </c>
-      <c r="Z19" s="65">
-        <f>Y101/R105</f>
-        <v>43.720023932987637</v>
+        <v>55.939514834951453</v>
+      </c>
+      <c r="Z19" s="38">
+        <f>Y101/R106</f>
+        <v>43.966196322014497</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4335,26 +4506,26 @@
       </c>
       <c r="R20" s="16">
         <f t="shared" ref="R20" si="6">(R19/Q19)-1</f>
-        <v>2.3213038416763681</v>
+        <v>2.3830034924330619</v>
       </c>
       <c r="S20" s="16">
         <f t="shared" ref="S20" si="7">(S19/R19)-1</f>
-        <v>0.2376445846477393</v>
+        <v>0.24638678596008257</v>
       </c>
       <c r="T20" s="16">
         <f t="shared" ref="T20" si="8">(T19/S19)-1</f>
-        <v>0.29340130274709719</v>
+        <v>0.26062948647156259</v>
       </c>
       <c r="U20" s="16">
         <f t="shared" ref="U20" si="9">(U19/T19)-1</f>
-        <v>0.27173199036566675</v>
+        <v>0.37253613666228635</v>
       </c>
       <c r="V20" s="16">
         <f t="shared" ref="V20" si="10">(V19/U19)-1</f>
-        <v>0.24603994490358128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+        <v>0.25386947502792401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4406,25 +4577,31 @@
       <c r="Q21" s="2">
         <v>0.1186</v>
       </c>
-      <c r="R21" s="61">
+      <c r="R21" s="34">
         <f>R19/R3</f>
-        <v>0.32281059063136458</v>
-      </c>
-      <c r="S21" s="61">
+        <v>0.32640682915871055</v>
+      </c>
+      <c r="S21" s="34">
         <f t="shared" ref="S21:V21" si="11">S19/S3</f>
-        <v>0.32819035226322146</v>
-      </c>
-      <c r="T21" s="61">
+        <v>0.33475046210720888</v>
+      </c>
+      <c r="T21" s="34">
         <f t="shared" si="11"/>
-        <v>0.35087584511370623</v>
-      </c>
-      <c r="U21" s="61">
+        <v>0.34823062843197072</v>
+      </c>
+      <c r="U21" s="34">
         <f t="shared" si="11"/>
-        <v>0.37589800012944147</v>
-      </c>
-      <c r="V21" s="61">
+        <v>0.39825876970005086</v>
+      </c>
+      <c r="V21" s="34">
         <f t="shared" si="11"/>
-        <v>0.40087520079765138</v>
+        <v>0.42326959332076486</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4479,6 +4656,14 @@
       <c r="Q22" s="10">
         <v>355000000</v>
       </c>
+      <c r="Y22" s="39">
+        <f>(-1*Q98)/Y101</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="40">
+        <f>Q107/Y101</f>
+        <v>1.8857052515460097E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4541,7 +4726,7 @@
         <v>100000</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>-100000</v>
@@ -4697,13 +4882,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>280000</v>
@@ -4797,25 +4982,25 @@
       <c r="Q28" s="11">
         <v>325000000</v>
       </c>
-      <c r="R28" s="62">
-        <v>1964000000</v>
-      </c>
-      <c r="S28" s="62">
-        <v>2457000000</v>
-      </c>
-      <c r="T28" s="62">
-        <v>3055000000</v>
-      </c>
-      <c r="U28" s="62">
-        <v>3828000000</v>
-      </c>
-      <c r="V28" s="62">
-        <v>4388000000</v>
+      <c r="R28" s="35">
+        <v>2060000000</v>
+      </c>
+      <c r="S28" s="35">
+        <v>2537000000</v>
+      </c>
+      <c r="T28" s="35">
+        <v>3140000000</v>
+      </c>
+      <c r="U28" s="35">
+        <v>3875000000</v>
+      </c>
+      <c r="V28" s="35">
+        <v>4454000000</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4880,23 +5065,23 @@
       </c>
       <c r="R29" s="16">
         <f t="shared" ref="R29" si="15">(R28/Q28)-1</f>
-        <v>5.0430769230769235</v>
+        <v>5.3384615384615381</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" ref="S29" si="16">(S28/R28)-1</f>
-        <v>0.25101832993890016</v>
+        <v>0.23155339805825248</v>
       </c>
       <c r="T29" s="16">
         <f t="shared" ref="T29" si="17">(T28/S28)-1</f>
-        <v>0.24338624338624348</v>
+        <v>0.23768230193141515</v>
       </c>
       <c r="U29" s="16">
         <f t="shared" ref="U29" si="18">(U28/T28)-1</f>
-        <v>0.25302782324058914</v>
+        <v>0.234076433121019</v>
       </c>
       <c r="V29" s="16">
         <f t="shared" ref="V29" si="19">(V28/U28)-1</f>
-        <v>0.14629049111807735</v>
+        <v>0.14941935483870972</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4951,25 +5136,25 @@
       <c r="Q30" s="2">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="R30" s="60">
+      <c r="R30" s="33">
         <f>R28/R3</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="S30" s="60">
+        <v>0.23138267999550713</v>
+      </c>
+      <c r="S30" s="33">
         <f t="shared" ref="S30:V30" si="20">S28/S3</f>
-        <v>0.2283669486011711</v>
-      </c>
-      <c r="T30" s="60">
+        <v>0.23447319778188538</v>
+      </c>
+      <c r="T30" s="33">
         <f t="shared" si="20"/>
-        <v>0.23471112476951445</v>
-      </c>
-      <c r="U30" s="60">
+        <v>0.23947528981086028</v>
+      </c>
+      <c r="U30" s="33">
         <f t="shared" si="20"/>
-        <v>0.24775095463076824</v>
-      </c>
-      <c r="V30" s="60">
+        <v>0.24625063548551093</v>
+      </c>
+      <c r="V30" s="33">
         <f t="shared" si="20"/>
-        <v>0.24306209494266881</v>
+        <v>0.2399138163210342</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5024,20 +5209,20 @@
       <c r="Q31" s="12">
         <v>1.61</v>
       </c>
-      <c r="R31" s="63">
-        <v>9.64</v>
-      </c>
-      <c r="S31" s="63">
-        <v>12.06</v>
-      </c>
-      <c r="T31" s="63">
-        <v>15</v>
-      </c>
-      <c r="U31" s="63">
-        <v>18.79</v>
-      </c>
-      <c r="V31" s="63">
-        <v>21.54</v>
+      <c r="R31" s="36">
+        <v>10.11</v>
+      </c>
+      <c r="S31" s="36">
+        <v>12.45</v>
+      </c>
+      <c r="T31" s="36">
+        <v>15.41</v>
+      </c>
+      <c r="U31" s="36">
+        <v>19.02</v>
+      </c>
+      <c r="V31" s="36">
+        <v>21.86</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5201,7 +5386,7 @@
     </row>
     <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5270,52 +5455,52 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -5323,52 +5508,52 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5376,13 +5561,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1">
         <v>29402000</v>
@@ -5429,19 +5614,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1">
         <v>195702000</v>
@@ -5482,13 +5667,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1">
         <v>29402000</v>
@@ -5535,13 +5720,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>14999000</v>
@@ -5588,52 +5773,52 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5641,13 +5826,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>3091000</v>
@@ -5694,13 +5879,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>47492000</v>
@@ -5747,13 +5932,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>1698000</v>
@@ -5800,22 +5985,22 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1">
         <v>8724000</v>
@@ -5853,22 +6038,22 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1">
         <v>5796000</v>
@@ -5906,22 +6091,22 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1">
         <v>14520000</v>
@@ -5959,22 +6144,22 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1">
         <v>255356000</v>
@@ -6012,40 +6197,40 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1">
         <v>599633000</v>
@@ -6065,13 +6250,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>2179000</v>
@@ -6118,13 +6303,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>3877000</v>
@@ -6171,52 +6356,52 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6224,13 +6409,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11">
         <v>51369000</v>
@@ -6277,13 +6462,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>1570000</v>
@@ -6330,40 +6515,40 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1">
         <v>543418000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1">
         <v>52668000</v>
@@ -6383,13 +6568,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1">
         <v>6127000</v>
@@ -6428,7 +6613,7 @@
         <v>101000000</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6436,13 +6621,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1">
         <v>31282000</v>
@@ -6489,13 +6674,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>6715000</v>
@@ -6542,13 +6727,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>45694000</v>
@@ -6595,22 +6780,22 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1">
         <v>414777000</v>
@@ -6648,13 +6833,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1">
         <v>9449000</v>
@@ -6701,52 +6886,52 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6754,13 +6939,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>67488000</v>
@@ -6807,13 +6992,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>76937000</v>
@@ -6860,52 +7045,52 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6913,13 +7098,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10">
         <v>122631000</v>
@@ -6966,13 +7151,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>16000</v>
@@ -7008,10 +7193,10 @@
         <v>196000</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -7019,13 +7204,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-71286000</v>
@@ -7072,13 +7257,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>8000</v>
@@ -7125,16 +7310,16 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1">
         <v>2936000</v>
@@ -7178,13 +7363,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10">
         <v>-71262000</v>
@@ -7231,13 +7416,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11">
         <v>51369000</v>
@@ -7284,52 +7469,52 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -7337,52 +7522,52 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -7390,10 +7575,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>-5900000</v>
@@ -7402,7 +7587,7 @@
         <v>-29705000</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G76" s="1">
         <v>-37348000</v>
@@ -7443,10 +7628,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>200000</v>
@@ -7496,16 +7681,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-138000</v>
@@ -7549,13 +7734,13 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1">
         <v>545000</v>
@@ -7599,7 +7784,7 @@
     </row>
     <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:Q80" si="24">B79/B3</f>
@@ -7671,10 +7856,10 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>5300000</v>
@@ -7724,13 +7909,13 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1">
         <v>-5176000</v>
@@ -7777,70 +7962,70 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X83" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y83" s="69"/>
+        <v>91</v>
+      </c>
+      <c r="X83" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y83" s="66"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1">
         <v>912000</v>
@@ -7881,23 +8066,23 @@
       <c r="Q84" s="1">
         <v>172000000</v>
       </c>
-      <c r="X84" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y84" s="71"/>
+      <c r="X84" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y84" s="67"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>18518000</v>
@@ -7936,12 +8121,12 @@
         <v>395000000</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X85" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y85" s="24">
+        <v>91</v>
+      </c>
+      <c r="X85" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y85" s="43">
         <f>Q17</f>
         <v>27000000</v>
       </c>
@@ -7951,10 +8136,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>600000</v>
@@ -7996,12 +8181,12 @@
         <v>334000000</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X86" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y86" s="24">
+        <v>91</v>
+      </c>
+      <c r="X86" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y86" s="43">
         <f>Q56</f>
         <v>96000000</v>
       </c>
@@ -8011,10 +8196,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>200000</v>
@@ -8058,10 +8243,10 @@
       <c r="Q87" s="10">
         <v>2723000000</v>
       </c>
-      <c r="X87" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y87" s="24">
+      <c r="X87" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y87" s="43">
         <f>Q61</f>
         <v>2136000000</v>
       </c>
@@ -8071,10 +8256,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-300000</v>
@@ -8118,17 +8303,17 @@
       <c r="Q88" s="1">
         <v>-550000000</v>
       </c>
-      <c r="X88" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y88" s="31">
+      <c r="X88" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y88" s="45">
         <f>Y85/(Y86+Y87)</f>
         <v>1.2096774193548387E-2</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:Q89" si="25">(-1*B88)/B3</f>
@@ -8194,10 +8379,10 @@
         <f t="shared" si="25"/>
         <v>7.5914423740510703E-2</v>
       </c>
-      <c r="X89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y89" s="24">
+      <c r="X89" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y89" s="43">
         <f>Q27</f>
         <v>74000000</v>
       </c>
@@ -8207,22 +8392,22 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-13330000</v>
@@ -8254,10 +8439,10 @@
       <c r="Q90" s="1">
         <v>-91000000</v>
       </c>
-      <c r="X90" s="23" t="s">
+      <c r="X90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Y90" s="24">
+      <c r="Y90" s="43">
         <f>Q25</f>
         <v>399000000</v>
       </c>
@@ -8267,19 +8452,19 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1">
         <v>-240626000</v>
@@ -8314,10 +8499,10 @@
       <c r="Q91" s="1">
         <v>-4205000000</v>
       </c>
-      <c r="X91" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y91" s="31">
+      <c r="X91" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y91" s="45">
         <f>Y89/Y90</f>
         <v>0.18546365914786966</v>
       </c>
@@ -8327,19 +8512,19 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>43498000</v>
@@ -8374,23 +8559,23 @@
       <c r="Q92" s="1">
         <v>2245000000</v>
       </c>
-      <c r="X92" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y92" s="33">
+      <c r="X92" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y92" s="45">
         <f>Y88*(1-Y91)</f>
         <v>9.853262187727382E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-600000</v>
@@ -8434,20 +8619,20 @@
       <c r="Q93" s="1">
         <v>18000000</v>
       </c>
-      <c r="X93" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y93" s="73"/>
+      <c r="X93" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y93" s="67"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-900000</v>
@@ -8491,11 +8676,12 @@
       <c r="Q94" s="10">
         <v>-2583000000</v>
       </c>
-      <c r="X94" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y94" s="34">
-        <v>4.095E-2</v>
+      <c r="X94" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y94" s="46">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8503,28 +8689,28 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1">
         <v>-223000</v>
@@ -8550,12 +8736,12 @@
       <c r="Q95" s="1">
         <v>-94000000</v>
       </c>
-      <c r="X95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y95" s="53" cm="1">
+      <c r="X95" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y95" s="47" cm="1">
         <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.0199</v>
+        <v>1.0207999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8563,57 +8749,57 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1">
         <v>238193000</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X96" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y96" s="34">
+        <v>91</v>
+      </c>
+      <c r="X96" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8622,10 +8808,10 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1">
         <v>3700000</v>
@@ -8634,118 +8820,118 @@
         <v>-20814000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-1960000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1">
         <v>-55000000</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X97" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y97" s="33">
+        <v>91</v>
+      </c>
+      <c r="X97" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y97" s="45">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.485669500000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+        <v>8.4933503999999993E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X98" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y98" s="73"/>
+        <v>91</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0</v>
+      </c>
+      <c r="X98" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y98" s="67"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>51486000</v>
@@ -8786,10 +8972,10 @@
       <c r="Q99" s="1">
         <v>-250000000</v>
       </c>
-      <c r="X99" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y99" s="24">
+      <c r="X99" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y99" s="43">
         <f>Y86+Y87</f>
         <v>2232000000</v>
       </c>
@@ -8799,10 +8985,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>3700000</v>
@@ -8846,12 +9032,12 @@
       <c r="Q100" s="10">
         <v>-344000000</v>
       </c>
-      <c r="X100" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y100" s="31">
+      <c r="X100" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y100" s="45">
         <f>Y99/Y103</f>
-        <v>1.9957420592803348E-2</v>
+        <v>1.9001016361641025E-2</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8859,13 +9045,13 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>-71000</v>
@@ -8906,12 +9092,12 @@
       <c r="Q101" s="1">
         <v>-53000000</v>
       </c>
-      <c r="X101" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y101" s="46" cm="1">
+      <c r="X101" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y101" s="48" cm="1">
         <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>109606100000</v>
+        <v>115235400560</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8919,10 +9105,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>3000000</v>
@@ -8966,12 +9152,12 @@
       <c r="Q102" s="10">
         <v>-257000000</v>
       </c>
-      <c r="X102" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y102" s="31">
+      <c r="X102" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y102" s="45">
         <f>Y101/Y103</f>
-        <v>0.98004257940719663</v>
+        <v>0.98099898363835902</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8979,10 +9165,10 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>566204000</v>
@@ -9026,23 +9212,23 @@
       <c r="Q103" s="1">
         <v>1732000000</v>
       </c>
-      <c r="X103" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y103" s="35">
+      <c r="X103" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y103" s="49">
         <f>Y99+Y101</f>
-        <v>111838100000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+        <v>117467400560</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>569204000</v>
@@ -9086,334 +9272,386 @@
       <c r="Q104" s="11">
         <v>1475000000</v>
       </c>
-      <c r="X104" s="72" t="s">
+      <c r="X104" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y104" s="67"/>
+    </row>
+    <row r="105" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:P105" si="26">(B22*(1-$Y$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="26"/>
+        <v>475689.22305764444</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="26"/>
+        <v>-5880110.2756892219</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="26"/>
+        <v>20607503.759398498</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="26"/>
+        <v>-29959533.834586471</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="26"/>
+        <v>-55713879.69924812</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="26"/>
+        <v>-94795125.313283205</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="26"/>
+        <v>-60721338.345864654</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="26"/>
+        <v>-270643481.20300752</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="26"/>
+        <v>6088611.5288220495</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="26"/>
+        <v>31338481.203007519</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="26"/>
+        <v>99886714.285714269</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="26"/>
+        <v>360509140.35087717</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="26"/>
+        <v>347335839.59899747</v>
+      </c>
+      <c r="Q105" s="1">
+        <f>(Q22*(1-$Y$91))+Q77+Q88+Q81</f>
+        <v>721160401.00250626</v>
+      </c>
+      <c r="R105" s="29">
+        <f>Q105*(1+$N$106)</f>
+        <v>1152353077.701787</v>
+      </c>
+      <c r="S105" s="29">
+        <f t="shared" ref="S105:V105" si="27">R105*(1+$N$106)</f>
+        <v>1841362356.8942547</v>
+      </c>
+      <c r="T105" s="29">
+        <f t="shared" si="27"/>
+        <v>2942340672.3131161</v>
+      </c>
+      <c r="U105" s="29">
+        <f t="shared" si="27"/>
+        <v>4701610521.9778719</v>
+      </c>
+      <c r="V105" s="29">
+        <f t="shared" si="27"/>
+        <v>7512774339.279726</v>
+      </c>
+      <c r="W105" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="X105" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y105" s="51">
+        <f>(Y100*Y92)+(Y102*Y97)</f>
+        <v>8.3506903096889046E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:Q106" si="28">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="28"/>
+        <v>90.16</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="28"/>
+        <v>-4.1521500658183417</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.76683487036714804</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="28"/>
+        <v>2.9440298507462686</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="28"/>
+        <v>2.1985241248817409</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="28"/>
+        <v>1.6722353024692089</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.84234038785088106</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="28"/>
+        <v>12.638265607009464</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.15769131773208822</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.59791507700626267</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.50723014812036182</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.32340582032698162</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.21261160714285721</v>
+      </c>
+      <c r="R106" s="30">
+        <v>2621000000</v>
+      </c>
+      <c r="S106" s="30">
+        <v>3220000000</v>
+      </c>
+      <c r="T106" s="30">
+        <v>4093000000</v>
+      </c>
+      <c r="U106" s="30">
+        <v>5601000000</v>
+      </c>
+      <c r="V106" s="30">
+        <v>7008000000</v>
+      </c>
+      <c r="W106" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="X106" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y106" s="53">
+        <f>(SUM(R4:V4)/5)</f>
+        <v>0.20717979613182202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-100000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-9116000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>28735000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>6700000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>26425000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>84521000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>225860000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>35609000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>485645000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>562227000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>898391000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1354082000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>1792000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>2173000000</v>
+      </c>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="26"/>
+      <c r="V107" s="31">
+        <f>V106*(1+Y107)/(Y108-Y107)</f>
+        <v>122775255906.20345</v>
+      </c>
+      <c r="W107" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="Y104" s="73"/>
-    </row>
-    <row r="105" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>90.16</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-4.1521500658183417</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.76683487036714804</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:O105" si="26">(H106/G106)-1</f>
-        <v>2.9440298507462686</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="26"/>
-        <v>2.1985241248817409</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="26"/>
-        <v>1.6722353024692089</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.84234038785088106</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="26"/>
-        <v>12.638265607009464</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.15769131773208822</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.59791507700626267</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.50723014812036182</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" ref="P105" si="27">(P106/O106)-1</f>
-        <v>0.32340582032698162</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="28">(Q106/P106)-1</f>
-        <v>0.21261160714285721</v>
-      </c>
-      <c r="R105" s="57">
-        <v>2507000000</v>
-      </c>
-      <c r="S105" s="57">
-        <v>3126000000</v>
-      </c>
-      <c r="T105" s="57">
-        <v>4064000000</v>
-      </c>
-      <c r="U105" s="57">
-        <v>5090000000</v>
-      </c>
-      <c r="V105" s="57">
-        <v>6521000000</v>
-      </c>
-      <c r="W105" s="15"/>
-      <c r="X105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y105" s="26">
-        <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.3359819945461405E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-100000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-9116000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>28735000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>6700000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>26425000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>84521000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>225860000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>35609000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>485645000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>562227000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>898391000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>1354082000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>1792000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>2173000000</v>
-      </c>
-      <c r="R106" s="54">
-        <f>Q106*(1+$Y$106)</f>
-        <v>2608682713.5908418</v>
-      </c>
-      <c r="S106" s="54">
-        <f t="shared" ref="S106:V106" si="29">R106*(1+$Y$106)</f>
-        <v>3131719052.0882092</v>
-      </c>
-      <c r="T106" s="54">
+      <c r="X107" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y107" s="55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R108" s="31">
+        <f t="shared" ref="R108:U108" si="29">R107+R106</f>
+        <v>2621000000</v>
+      </c>
+      <c r="S108" s="31">
         <f t="shared" si="29"/>
-        <v>3759623265.0739112</v>
-      </c>
-      <c r="U106" s="54">
+        <v>3220000000</v>
+      </c>
+      <c r="T108" s="31">
         <f t="shared" si="29"/>
-        <v>4513421178.6526794</v>
-      </c>
-      <c r="V106" s="54">
+        <v>4093000000</v>
+      </c>
+      <c r="U108" s="31">
         <f t="shared" si="29"/>
-        <v>5418354260.4261608</v>
-      </c>
-      <c r="W106" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="X106" s="37" t="s">
+        <v>5601000000</v>
+      </c>
+      <c r="V108" s="31">
+        <f>V107+V106</f>
+        <v>129783255906.20345</v>
+      </c>
+      <c r="W108" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="X108" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="Y106" s="38">
-        <f>(SUM(R4:V4)/5)</f>
-        <v>0.20049825751994574</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="36"/>
-      <c r="S107" s="36"/>
-      <c r="T107" s="36"/>
-      <c r="U107" s="36"/>
-      <c r="V107" s="58">
-        <f>V105*(1+Y107)/(Y108-Y107)</f>
-        <v>125874300304.33025</v>
-      </c>
-      <c r="W107" s="40" t="s">
+      <c r="Y108" s="53">
+        <f>Y105</f>
+        <v>8.3506903096889046E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R109" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="X107" s="41" t="s">
+      <c r="S109" s="64"/>
+    </row>
+    <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R110" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="Y107" s="42">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R108" s="39">
-        <f t="shared" ref="R108:T108" si="30">R107+R106</f>
-        <v>2608682713.5908418</v>
-      </c>
-      <c r="S108" s="39">
-        <f t="shared" si="30"/>
-        <v>3131719052.0882092</v>
-      </c>
-      <c r="T108" s="39">
-        <f t="shared" si="30"/>
-        <v>3759623265.0739112</v>
-      </c>
-      <c r="U108" s="39">
-        <f>U107+U106</f>
-        <v>4513421178.6526794</v>
-      </c>
-      <c r="V108" s="58">
-        <f>V107+V105</f>
-        <v>132395300304.33025</v>
-      </c>
-      <c r="W108" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="X108" s="43" t="s">
+      <c r="S110" s="48">
+        <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
+        <v>99351455573.155045</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R111" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="Y108" s="44">
-        <f>Y105</f>
-        <v>8.3359819945461405E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="S109" s="67"/>
-    </row>
-    <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R110" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="S110" s="46">
-        <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>100027066270.57739</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="S111" s="46">
+      <c r="S111" s="48">
         <f>Q40</f>
         <v>4280000000</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="S112" s="46">
+      <c r="R112" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="S112" s="48">
         <f>Y99</f>
         <v>2232000000</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="S113" s="46">
+      <c r="R113" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="S113" s="48">
         <f>S110+S111-S112</f>
-        <v>102075066270.57739</v>
+        <v>101399455573.15504</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="S114" s="47">
+      <c r="R114" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="S114" s="57">
         <f>Q34*(1+(5*W16))</f>
         <v>240126645.72531751</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="48" t="s">
+      <c r="R115" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="S115" s="59">
+        <f>S113/S114</f>
+        <v>422.2749010917621</v>
+      </c>
+    </row>
+    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R116" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="S116" s="60" cm="1">
+        <f t="array" ref="S116">_FV(A1,"Price")</f>
+        <v>565.6</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R117" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="S117" s="61">
+        <f>S115/S116-1</f>
+        <v>-0.25340364021965689</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R118" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="S115" s="56">
-        <f>S113/S114</f>
-        <v>425.08846097547104</v>
-      </c>
-    </row>
-    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="S116" s="55" cm="1">
-        <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>539.96</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="S117" s="50">
-        <f>S115/S116-1</f>
-        <v>-0.21274083084770912</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="S118" s="51" t="str">
+      <c r="S118" s="62" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -9462,8 +9700,9 @@
     <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1373715/000137371523000035/0001373715-23-000035-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1373715/000137371523000035/0001373715-23-000035-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="R1" r:id="rId34" display="https://finbox.com/NYSE:NOW/explorer/revenue_proj" xr:uid="{74C398BD-6771-E044-B180-83E5CD7B712B}"/>
+    <hyperlink ref="W106" r:id="rId35" xr:uid="{0BC166D8-01B7-9F45-8E9B-43A4361487B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId35"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BF586A-5567-AC4E-BF1D-5FE7F32DB5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0CD318-4FD1-7C49-88B9-2C397597A44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -574,6 +571,15 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +707,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -901,110 +914,161 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,15 +1158,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4073089700996662E-2"/>
-          <c:y val="0.14371731594775142"/>
-          <c:w val="0.83815282392026591"/>
-          <c:h val="0.64966391956107528"/>
+          <c:x val="0.11799335548172755"/>
+          <c:y val="0.13890819257176532"/>
+          <c:w val="0.80891694352159482"/>
+          <c:h val="0.62757227121363812"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1153,10 +1217,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -1204,16 +1268,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$Q$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1900000</c:v>
                 </c:pt>
@@ -1261,13 +1340,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7245000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8910000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10820000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13112000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15736000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18565000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D627-2549-8115-C634DEE3FDDE}"/>
+              <c16:uniqueId val="{00000000-B547-344A-A17D-B524F2C735CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1320,10 +1414,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -1371,16 +1465,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$Q$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$V$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-4000000</c:v>
                 </c:pt>
@@ -1428,13 +1537,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>325000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2060000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2537000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3140000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3875000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4454000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D627-2549-8115-C634DEE3FDDE}"/>
+              <c16:uniqueId val="{00000001-B547-344A-A17D-B524F2C735CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1487,10 +1611,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -1538,16 +1662,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$Q$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$V$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1595,13 +1734,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2173000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2621000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3214000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4024000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5596000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7006000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D627-2549-8115-C634DEE3FDDE}"/>
+              <c16:uniqueId val="{00000002-B547-344A-A17D-B524F2C735CC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1613,13 +1767,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1010723727"/>
-        <c:axId val="1020560399"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="226362943"/>
+        <c:axId val="226364671"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1010723727"/>
+        <c:axId val="226362943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020560399"/>
+        <c:crossAx val="226364671"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1020560399"/>
+        <c:axId val="226364671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1704,7 +1858,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1716,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1010723727"/>
+        <c:crossAx val="226362943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1734,10 +1888,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34498579538022861"/>
-          <c:y val="0.8935903675305894"/>
+          <c:x val="0.34365689172574354"/>
+          <c:y val="0.89151529916714589"/>
           <c:w val="0.31534402385748295"/>
-          <c:h val="5.9762402148711001E-2"/>
+          <c:h val="5.7762609964427974E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1753,7 +1907,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1844,7 +1998,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2082,7 +2236,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2317,22 +2470,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988546E8-A38E-3DF9-A0FE-5081B0AE5561}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2547FC-80C8-9539-AD27-0A19A0D921DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,32 +2513,25 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodity Stocks"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2394,14 +2540,19 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="8">
+          <cell r="C8">
+            <v>4.6289999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2527,11 +2678,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>576.67999999999995</v>
-    <v>337</v>
-    <v>1.0207999999999999</v>
-    <v>12.62</v>
-    <v>2.2821999999999999E-2</v>
+    <v>614.35990000000004</v>
+    <v>347.29</v>
+    <v>1</v>
+    <v>16.84</v>
+    <v>3.0528E-2</v>
+    <v>-0.28000000000000003</v>
+    <v>-4.9259999999999994E-4</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -2539,24 +2692,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>565.85</v>
+    <v>574.25</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.999827522654</v>
+    <v>45216.998954131253</v>
     <v>0</v>
-    <v>553</v>
-    <v>115235400560</v>
+    <v>548.79999999999995</v>
+    <v>115967880000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>553</v>
-    <v>288.32429999999999</v>
-    <v>552.98</v>
-    <v>565.6</v>
-    <v>203740100</v>
+    <v>549.66</v>
+    <v>79.403800000000004</v>
+    <v>551.63</v>
+    <v>568.47</v>
+    <v>568.19000000000005</v>
+    <v>204000000</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>138</v>
-    <v>1249515</v>
+    <v>1397296</v>
+    <v>986419</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2588,6 +2742,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2608,6 +2764,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2624,7 +2781,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2635,13 +2792,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2707,13 +2867,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2758,6 +2924,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2765,6 +2934,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3123,13 +3295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z118"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3191,19 +3363,19 @@
       <c r="Q1" s="8">
         <v>2022</v>
       </c>
-      <c r="R1" s="23">
+      <c r="R1" s="20">
         <v>2023</v>
       </c>
-      <c r="S1" s="23">
+      <c r="S1" s="20">
         <v>2024</v>
       </c>
-      <c r="T1" s="23">
+      <c r="T1" s="20">
         <v>2025</v>
       </c>
-      <c r="U1" s="23">
+      <c r="U1" s="20">
         <v>2026</v>
       </c>
-      <c r="V1" s="23">
+      <c r="V1" s="20">
         <v>2027</v>
       </c>
     </row>
@@ -3327,31 +3499,31 @@
       <c r="Q3" s="1">
         <v>7245000000</v>
       </c>
-      <c r="R3" s="24">
-        <v>8903000000</v>
-      </c>
-      <c r="S3" s="24">
+      <c r="R3" s="21">
+        <v>8910000000</v>
+      </c>
+      <c r="S3" s="21">
         <v>10820000000</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="21">
         <v>13112000000</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="21">
         <v>15736000000</v>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="21">
         <v>18565000000</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="18" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3360,73 +3532,73 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="63">
+      <c r="C4" s="33">
         <f>(C3/B3)-1</f>
         <v>3.6315789473684212</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="33">
         <f>(D3/C3)-1</f>
         <v>1.1931818181818183</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="33">
         <f>(E3/D3)-1</f>
         <v>1.2450259067357514</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="33">
         <f t="shared" ref="F4:V4" si="0">(F3/E3)-1</f>
         <v>1.138083039073138</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="33">
         <f t="shared" si="0"/>
         <v>1.6307142625835214</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="33">
         <f t="shared" si="0"/>
         <v>0.74242548581932777</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="33">
         <f t="shared" si="0"/>
         <v>0.60735429176969258</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="33">
         <f t="shared" si="0"/>
         <v>0.4730947912500385</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="33">
         <f t="shared" si="0"/>
         <v>0.38293451883677454</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="33">
         <f t="shared" si="0"/>
         <v>0.39015313053527723</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="33">
         <f t="shared" si="0"/>
         <v>0.34960212640699084</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="33">
         <f t="shared" si="0"/>
         <v>0.32643965691716081</v>
       </c>
-      <c r="O4" s="63">
+      <c r="O4" s="33">
         <f t="shared" si="0"/>
         <v>0.306044294405591</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="33">
         <f t="shared" si="0"/>
         <v>0.30457370797197192</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="33">
         <f t="shared" si="0"/>
         <v>0.22879918588873815</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22884748102139407</v>
+        <v>0.22981366459627339</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21532067842300351</v>
+        <v>0.21436588103254772</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
@@ -3440,19 +3612,19 @@
         <f t="shared" si="0"/>
         <v>0.17977885104219626</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="61">
         <f>(Q4+P4+O4)/3</f>
         <v>0.27980572942210036</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="61">
         <f>(Q20+P20+O20)/3</f>
         <v>0.35623712562905463</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="61">
         <f>(Q29+P29+O29)/3</f>
         <v>0.18100456316116176</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="61">
         <f>(Q106+P106+O106)/3</f>
         <v>0.3477491918634002</v>
       </c>
@@ -3509,6 +3681,10 @@
       <c r="Q5" s="1">
         <v>1573000000</v>
       </c>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3562,16 +3738,20 @@
       <c r="Q6" s="10">
         <v>5672000000</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="R6" s="22">
+        <f>R3*R7</f>
+        <v>6957819000</v>
+      </c>
+      <c r="W6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="38" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3627,21 +3807,24 @@
       <c r="Q7" s="2">
         <v>0.78290000000000004</v>
       </c>
-      <c r="W7" s="17">
-        <f>Q7</f>
-        <v>0.78290000000000004</v>
-      </c>
-      <c r="X7" s="20">
-        <f>Q21</f>
-        <v>0.1186</v>
-      </c>
-      <c r="Y7" s="20">
-        <f>Q30</f>
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="Z7" s="20">
-        <f>Q107/Q3</f>
-        <v>0.29993098688750863</v>
+      <c r="R7" s="2">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="W7" s="61">
+        <f>R7</f>
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="X7" s="62">
+        <f>R21</f>
+        <v>0.32615039281705949</v>
+      </c>
+      <c r="Y7" s="62">
+        <f>R30</f>
+        <v>0.23120089786756454</v>
+      </c>
+      <c r="Z7" s="62">
+        <f>R107/R3</f>
+        <v>0.29416386083052748</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3696,6 +3879,10 @@
       <c r="Q8" s="1">
         <v>1768000000</v>
       </c>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
     </row>
     <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -3765,16 +3952,16 @@
         <f t="shared" si="1"/>
         <v>0.24403036576949622</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="W9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="X9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Y9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="Z9" s="18" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3830,19 +4017,19 @@
       <c r="Q10" s="1">
         <v>735000000</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="61">
         <f>Q9</f>
         <v>0.24403036576949622</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="62">
         <f>Q13</f>
         <v>0.48985507246376814</v>
       </c>
-      <c r="Y10" s="20">
+      <c r="Y10" s="62">
         <f>Q80</f>
         <v>0.19337474120082815</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="62">
         <f>Q89</f>
         <v>7.5914423740510703E-2</v>
       </c>
@@ -3899,6 +4086,10 @@
       <c r="Q11" s="1">
         <v>2814000000</v>
       </c>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
     </row>
     <row r="12" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3952,16 +4143,16 @@
       <c r="Q12" s="1">
         <v>3549000000</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="X12" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Y12" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4033,19 +4224,19 @@
         <f t="shared" si="2"/>
         <v>0.48985507246376814</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="61">
         <f>Q28/Q72</f>
         <v>6.4586645468998408E-2</v>
       </c>
-      <c r="X13" s="20">
+      <c r="X13" s="62">
         <f>Q28/Q54</f>
         <v>2.4437927663734114E-2</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y13" s="62">
         <f>Q22/(Q72+Q56+Q61)</f>
         <v>4.8871145374449337E-2</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="63">
         <f>Q67/Q72</f>
         <v>1.6428855325914149</v>
       </c>
@@ -4102,6 +4293,10 @@
       <c r="Q14" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -4155,16 +4350,16 @@
       <c r="Q15" s="1">
         <v>5317000000</v>
       </c>
-      <c r="W15" s="18" t="s">
+      <c r="W15" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="X15" s="19" t="s">
+      <c r="X15" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Y15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="Z15" s="19" t="s">
+      <c r="Z15" s="18" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4220,21 +4415,21 @@
       <c r="Q16" s="1">
         <v>6890000000</v>
       </c>
-      <c r="W16" s="25">
-        <f>(Q35+P35+O35+N35+M35)/5</f>
-        <v>3.5956121281664088E-2</v>
-      </c>
-      <c r="X16" s="37">
-        <f>Y101/Q3</f>
-        <v>15.905507323671497</v>
-      </c>
-      <c r="Y16" s="37">
-        <f>Y101/Q28</f>
-        <v>354.57046326153846</v>
-      </c>
-      <c r="Z16" s="38">
-        <f>Y101/Q107</f>
-        <v>53.030557091578466</v>
+      <c r="W16" s="64">
+        <f>SUM(N35:R35)/5</f>
+        <v>2.8619356219629955E-2</v>
+      </c>
+      <c r="X16" s="65">
+        <f>Y102/Q3</f>
+        <v>16.006608695652172</v>
+      </c>
+      <c r="Y16" s="65">
+        <f>Y102/Q28</f>
+        <v>356.82424615384616</v>
+      </c>
+      <c r="Z16" s="66">
+        <f>Y102/Q107</f>
+        <v>53.367639208467558</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4289,6 +4484,10 @@
       <c r="Q17" s="1">
         <v>27000000</v>
       </c>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
     </row>
     <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4342,16 +4541,16 @@
       <c r="Q18" s="1">
         <v>433000000</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="W18" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="X18" s="19" t="s">
+      <c r="X18" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="Y18" s="19" t="s">
+      <c r="Y18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="Z18" s="19" t="s">
+      <c r="Z18" s="18" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4407,36 +4606,36 @@
       <c r="Q19" s="10">
         <v>859000000</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="22">
         <v>2906000000</v>
       </c>
-      <c r="S19" s="32">
+      <c r="S19" s="22">
         <v>3622000000</v>
       </c>
-      <c r="T19" s="32">
+      <c r="T19" s="22">
         <v>4566000000</v>
       </c>
-      <c r="U19" s="32">
+      <c r="U19" s="22">
         <v>6267000000</v>
       </c>
-      <c r="V19" s="32">
+      <c r="V19" s="22">
         <v>7858000000</v>
       </c>
-      <c r="W19" s="28">
+      <c r="W19" s="67">
         <f>Q40-Q56-Q61</f>
         <v>2048000000</v>
       </c>
-      <c r="X19" s="37">
-        <f>Y101/R3</f>
-        <v>12.943434860159497</v>
-      </c>
-      <c r="Y19" s="37">
-        <f>Y101/R28</f>
-        <v>55.939514834951453</v>
-      </c>
-      <c r="Z19" s="38">
-        <f>Y101/R106</f>
-        <v>43.966196322014497</v>
+      <c r="X19" s="65">
+        <f>Y102/R3</f>
+        <v>13.015474747474748</v>
+      </c>
+      <c r="Y19" s="65">
+        <f>Y102/R28</f>
+        <v>56.29508737864078</v>
+      </c>
+      <c r="Z19" s="66">
+        <f>Y102/R107</f>
+        <v>44.245661961083556</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4524,6 +4723,10 @@
         <f t="shared" ref="V20" si="10">(V19/U19)-1</f>
         <v>0.25386947502792401</v>
       </c>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
     </row>
     <row r="21" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -4577,31 +4780,35 @@
       <c r="Q21" s="2">
         <v>0.1186</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="24">
         <f>R19/R3</f>
-        <v>0.32640682915871055</v>
-      </c>
-      <c r="S21" s="34">
+        <v>0.32615039281705949</v>
+      </c>
+      <c r="S21" s="24">
         <f t="shared" ref="S21:V21" si="11">S19/S3</f>
         <v>0.33475046210720888</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21" s="24">
         <f t="shared" si="11"/>
         <v>0.34823062843197072</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="24">
         <f t="shared" si="11"/>
         <v>0.39825876970005086</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="24">
         <f t="shared" si="11"/>
         <v>0.42326959332076486</v>
       </c>
-      <c r="Y21" s="18" t="s">
+      <c r="W21" s="39"/>
+      <c r="X21" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y21" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="Z21" s="19" t="s">
-        <v>161</v>
+      <c r="Z21" s="18" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4656,13 +4863,18 @@
       <c r="Q22" s="10">
         <v>355000000</v>
       </c>
-      <c r="Y22" s="39">
-        <f>(-1*Q98)/Y101</f>
+      <c r="W22" s="39"/>
+      <c r="X22" s="61">
+        <f>SUM(S29:V29)/4</f>
+        <v>0.21318287198734909</v>
+      </c>
+      <c r="Y22" s="68">
+        <f>(-1*Q98)/Y102</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="40">
-        <f>Q107/Y101</f>
-        <v>1.8857052515460097E-2</v>
+      <c r="Z22" s="69">
+        <f>R107/Y102</f>
+        <v>2.2601085748915992E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4982,19 +5194,19 @@
       <c r="Q28" s="11">
         <v>325000000</v>
       </c>
-      <c r="R28" s="35">
+      <c r="R28" s="25">
         <v>2060000000</v>
       </c>
-      <c r="S28" s="35">
+      <c r="S28" s="25">
         <v>2537000000</v>
       </c>
-      <c r="T28" s="35">
+      <c r="T28" s="25">
         <v>3140000000</v>
       </c>
-      <c r="U28" s="35">
+      <c r="U28" s="25">
         <v>3875000000</v>
       </c>
-      <c r="V28" s="35">
+      <c r="V28" s="25">
         <v>4454000000</v>
       </c>
     </row>
@@ -5136,23 +5348,23 @@
       <c r="Q30" s="2">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="R30" s="33">
+      <c r="R30" s="23">
         <f>R28/R3</f>
-        <v>0.23138267999550713</v>
-      </c>
-      <c r="S30" s="33">
+        <v>0.23120089786756454</v>
+      </c>
+      <c r="S30" s="23">
         <f t="shared" ref="S30:V30" si="20">S28/S3</f>
         <v>0.23447319778188538</v>
       </c>
-      <c r="T30" s="33">
+      <c r="T30" s="23">
         <f t="shared" si="20"/>
         <v>0.23947528981086028</v>
       </c>
-      <c r="U30" s="33">
+      <c r="U30" s="23">
         <f t="shared" si="20"/>
         <v>0.24625063548551093</v>
       </c>
-      <c r="V30" s="33">
+      <c r="V30" s="23">
         <f t="shared" si="20"/>
         <v>0.2399138163210342</v>
       </c>
@@ -5209,19 +5421,19 @@
       <c r="Q31" s="12">
         <v>1.61</v>
       </c>
-      <c r="R31" s="36">
+      <c r="R31" s="26">
         <v>10.11</v>
       </c>
-      <c r="S31" s="36">
+      <c r="S31" s="26">
         <v>12.45</v>
       </c>
-      <c r="T31" s="36">
+      <c r="T31" s="26">
         <v>15.41</v>
       </c>
-      <c r="U31" s="36">
+      <c r="U31" s="26">
         <v>19.02</v>
       </c>
-      <c r="V31" s="36">
+      <c r="V31" s="26">
         <v>21.86</v>
       </c>
     </row>
@@ -5278,7 +5490,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -5330,8 +5542,12 @@
       <c r="Q33" s="1">
         <v>201430000</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R33" s="1" cm="1">
+        <f t="array" ref="R33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>204000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -5383,74 +5599,82 @@
       <c r="Q34" s="1">
         <v>203535000</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="1" cm="1">
+        <f t="array" ref="R34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>204000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="22">
+      <c r="C35" s="19">
         <f>(C34-B34)/B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="19">
         <f t="shared" ref="D35:O35" si="21">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="19">
         <f t="shared" si="21"/>
         <v>-0.79115891936824601</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="19">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="19">
         <f t="shared" si="21"/>
         <v>1.9418030836526416</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="19">
         <f t="shared" si="21"/>
         <v>0.8322056188539062</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="19">
         <f t="shared" si="21"/>
         <v>7.34015775070989E-2</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="19">
         <f t="shared" si="21"/>
         <v>7.1212282561525703E-2</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="19">
         <f t="shared" si="21"/>
         <v>5.6691094419137916E-2</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="19">
         <f t="shared" si="21"/>
         <v>4.0367104336960551E-2</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="19">
         <f t="shared" si="21"/>
         <v>3.8968444663107518E-2</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="19">
         <f t="shared" si="21"/>
         <v>0.10895367055804223</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="19">
         <f t="shared" si="21"/>
         <v>2.6644965343798645E-2</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="19">
         <f t="shared" ref="P35" si="22">(P34-O34)/O34</f>
         <v>2.5780578630764826E-3</v>
       </c>
-      <c r="Q35" s="22">
-        <f t="shared" ref="Q35" si="23">(Q34-P34)/P34</f>
+      <c r="Q35" s="19">
+        <f t="shared" ref="Q35:R35" si="23">(Q34-P34)/P34</f>
         <v>2.6354679802955664E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R35" s="19">
+        <f t="shared" si="23"/>
+        <v>2.2846193529368415E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -5503,7 +5727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -5556,7 +5780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -5609,7 +5833,7 @@
         <v>1470000000</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -5662,7 +5886,7 @@
         <v>2810000000</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -5715,7 +5939,7 @@
         <v>4280000000</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -5768,7 +5992,7 @@
         <v>1725000000</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -5821,7 +6045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -5874,7 +6098,7 @@
         <v>649000000</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -5927,7 +6151,7 @@
         <v>6654000000</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -5980,7 +6204,7 @@
         <v>1735000000</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -6033,7 +6257,7 @@
         <v>824000000</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -6086,7 +6310,7 @@
         <v>232000000</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -7957,7 +8181,7 @@
         <v>-340000000</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -8009,12 +8233,8 @@
       <c r="Q83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X83" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y83" s="66"/>
-    </row>
-    <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -8066,12 +8286,18 @@
       <c r="Q84" s="1">
         <v>172000000</v>
       </c>
-      <c r="X84" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y84" s="67"/>
-    </row>
-    <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y84" s="71"/>
+    </row>
+    <row r="85" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -8123,13 +8349,16 @@
       <c r="Q85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X85" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y85" s="43">
-        <f>Q17</f>
-        <v>27000000</v>
-      </c>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y85" s="72"/>
     </row>
     <row r="86" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -8183,12 +8412,18 @@
       <c r="Q86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X86" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y86" s="43">
-        <f>Q56</f>
-        <v>96000000</v>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y86" s="40">
+        <f>Q17</f>
+        <v>27000000</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8243,12 +8478,18 @@
       <c r="Q87" s="10">
         <v>2723000000</v>
       </c>
-      <c r="X87" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y87" s="43">
-        <f>Q61</f>
-        <v>2136000000</v>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y87" s="40">
+        <f>Q56</f>
+        <v>96000000</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8303,12 +8544,18 @@
       <c r="Q88" s="1">
         <v>-550000000</v>
       </c>
-      <c r="X88" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y88" s="45">
-        <f>Y85/(Y86+Y87)</f>
-        <v>1.2096774193548387E-2</v>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y88" s="40">
+        <f>Q61</f>
+        <v>2136000000</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -8379,12 +8626,18 @@
         <f t="shared" si="25"/>
         <v>7.5914423740510703E-2</v>
       </c>
-      <c r="X89" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y89" s="43">
-        <f>Q27</f>
-        <v>74000000</v>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y89" s="41">
+        <f>Y86/(Y87+Y88)</f>
+        <v>1.2096774193548387E-2</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8439,12 +8692,18 @@
       <c r="Q90" s="1">
         <v>-91000000</v>
       </c>
-      <c r="X90" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y90" s="43">
-        <f>Q25</f>
-        <v>399000000</v>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y90" s="40">
+        <f>Q27</f>
+        <v>74000000</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8499,12 +8758,18 @@
       <c r="Q91" s="1">
         <v>-4205000000</v>
       </c>
-      <c r="X91" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y91" s="45">
-        <f>Y89/Y90</f>
-        <v>0.18546365914786966</v>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y91" s="40">
+        <f>Q25</f>
+        <v>399000000</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8559,12 +8824,18 @@
       <c r="Q92" s="1">
         <v>2245000000</v>
       </c>
-      <c r="X92" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y92" s="45">
-        <f>Y88*(1-Y91)</f>
-        <v>9.853262187727382E-3</v>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="39"/>
+      <c r="X92" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y92" s="41">
+        <f>Y90/Y91</f>
+        <v>0.18546365914786966</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8619,12 +8890,21 @@
       <c r="Q93" s="1">
         <v>18000000</v>
       </c>
-      <c r="X93" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y93" s="67"/>
-    </row>
-    <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y93" s="41">
+        <f>Y89*(1-Y92)</f>
+        <v>9.853262187727382E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -8676,13 +8956,16 @@
       <c r="Q94" s="10">
         <v>-2583000000</v>
       </c>
-      <c r="X94" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y94" s="46">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y94" s="72"/>
     </row>
     <row r="95" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -8736,12 +9019,18 @@
       <c r="Q95" s="1">
         <v>-94000000</v>
       </c>
-      <c r="X95" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y95" s="47" cm="1">
-        <f t="array" ref="Y95">_FV(A1,"Beta")</f>
-        <v>1.0207999999999999</v>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y95" s="34">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.6289999999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8796,11 +9085,18 @@
       <c r="Q96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X96" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y96" s="46">
-        <v>8.4000000000000005E-2</v>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="39"/>
+      <c r="X96" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y96" s="42" cm="1">
+        <f t="array" ref="Y96">_FV(A1,"Beta")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -8855,12 +9151,17 @@
       <c r="Q97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X97" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y97" s="45">
-        <f>(Y94)+((Y95)*(Y96-Y94))</f>
-        <v>8.4933503999999993E-2</v>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="39"/>
+      <c r="X97" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y97" s="34">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8915,12 +9216,21 @@
       <c r="Q98" s="1">
         <v>0</v>
       </c>
-      <c r="X98" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y98" s="67"/>
-    </row>
-    <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+      <c r="X98" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y98" s="41">
+        <f>(Y95)+((Y96)*(Y97-Y95))</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -8972,13 +9282,16 @@
       <c r="Q99" s="1">
         <v>-250000000</v>
       </c>
-      <c r="X99" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y99" s="43">
-        <f>Y86+Y87</f>
-        <v>2232000000</v>
-      </c>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y99" s="72"/>
     </row>
     <row r="100" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -9032,12 +9345,18 @@
       <c r="Q100" s="10">
         <v>-344000000</v>
       </c>
-      <c r="X100" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y100" s="45">
-        <f>Y99/Y103</f>
-        <v>1.9001016361641025E-2</v>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y100" s="40">
+        <f>Y87+Y88</f>
+        <v>2232000000</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9092,12 +9411,18 @@
       <c r="Q101" s="1">
         <v>-53000000</v>
       </c>
-      <c r="X101" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y101" s="48" cm="1">
-        <f t="array" ref="Y101">_FV(A1,"Market cap",TRUE)</f>
-        <v>115235400560</v>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="39"/>
+      <c r="X101" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y101" s="41">
+        <f>Y100/Y104</f>
+        <v>1.8883267901794825E-2</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9152,12 +9477,18 @@
       <c r="Q102" s="10">
         <v>-257000000</v>
       </c>
-      <c r="X102" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y102" s="45">
-        <f>Y101/Y103</f>
-        <v>0.98099898363835902</v>
+      <c r="R102" s="39"/>
+      <c r="S102" s="39"/>
+      <c r="T102" s="39"/>
+      <c r="U102" s="39"/>
+      <c r="V102" s="39"/>
+      <c r="W102" s="39"/>
+      <c r="X102" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y102" s="43" cm="1">
+        <f t="array" ref="Y102">_FV(A1,"Market cap",TRUE)</f>
+        <v>115967880000</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9212,12 +9543,18 @@
       <c r="Q103" s="1">
         <v>1732000000</v>
       </c>
-      <c r="X103" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y103" s="49">
-        <f>Y99+Y101</f>
-        <v>117467400560</v>
+      <c r="R103" s="39"/>
+      <c r="S103" s="39"/>
+      <c r="T103" s="39"/>
+      <c r="U103" s="39"/>
+      <c r="V103" s="39"/>
+      <c r="W103" s="39"/>
+      <c r="X103" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y103" s="41">
+        <f>Y102/Y104</f>
+        <v>0.98111673209820516</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9272,17 +9609,28 @@
       <c r="Q104" s="11">
         <v>1475000000</v>
       </c>
-      <c r="X104" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y104" s="67"/>
-    </row>
-    <row r="105" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R104" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="S104" s="74"/>
+      <c r="T104" s="74"/>
+      <c r="U104" s="74"/>
+      <c r="V104" s="74"/>
+      <c r="W104" s="39"/>
+      <c r="X104" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y104" s="44">
+        <f>Y100+Y102</f>
+        <v>118199880000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="1" t="e">
-        <f t="shared" ref="B105:P105" si="26">(B22*(1-$Y$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:Q105" si="26">(B22*(1-$Y$92))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1" t="e">
@@ -9342,43 +9690,40 @@
         <v>347335839.59899747</v>
       </c>
       <c r="Q105" s="1">
-        <f>(Q22*(1-$Y$91))+Q77+Q88+Q81</f>
+        <f t="shared" si="26"/>
         <v>721160401.00250626</v>
       </c>
-      <c r="R105" s="29">
+      <c r="R105" s="45">
         <f>Q105*(1+$N$106)</f>
         <v>1152353077.701787</v>
       </c>
-      <c r="S105" s="29">
+      <c r="S105" s="45">
         <f t="shared" ref="S105:V105" si="27">R105*(1+$N$106)</f>
         <v>1841362356.8942547</v>
       </c>
-      <c r="T105" s="29">
+      <c r="T105" s="45">
         <f t="shared" si="27"/>
         <v>2942340672.3131161</v>
       </c>
-      <c r="U105" s="29">
+      <c r="U105" s="45">
         <f t="shared" si="27"/>
         <v>4701610521.9778719</v>
       </c>
-      <c r="V105" s="29">
+      <c r="V105" s="45">
         <f t="shared" si="27"/>
         <v>7512774339.279726</v>
       </c>
-      <c r="W105" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="X105" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y105" s="51">
-        <f>(Y100*Y92)+(Y102*Y97)</f>
-        <v>8.3506903096889046E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="W105" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="X105" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y105" s="72"/>
+    </row>
+    <row r="106" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
@@ -9441,35 +9786,41 @@
         <f t="shared" si="28"/>
         <v>0.21261160714285721</v>
       </c>
-      <c r="R106" s="30">
-        <v>2621000000</v>
-      </c>
-      <c r="S106" s="30">
-        <v>3220000000</v>
-      </c>
-      <c r="T106" s="30">
-        <v>4093000000</v>
-      </c>
-      <c r="U106" s="30">
-        <v>5601000000</v>
-      </c>
-      <c r="V106" s="30">
-        <v>7008000000</v>
-      </c>
-      <c r="W106" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="X106" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y106" s="53">
-        <f>(SUM(R4:V4)/5)</f>
-        <v>0.20717979613182202</v>
+      <c r="R106" s="46">
+        <f>(R107/Q107)-1</f>
+        <v>0.20616658996778647</v>
+      </c>
+      <c r="S106" s="46">
+        <f>(S107/R107)-1</f>
+        <v>0.22624952308279278</v>
+      </c>
+      <c r="T106" s="46">
+        <f>(T107/S107)-1</f>
+        <v>0.25202240199128823</v>
+      </c>
+      <c r="U106" s="46">
+        <f>(U107/T107)-1</f>
+        <v>0.39065606361829031</v>
+      </c>
+      <c r="V106" s="46">
+        <f>(V107/U107)-1</f>
+        <v>0.25196568977841305</v>
+      </c>
+      <c r="W106" s="47">
+        <f>SUM(R106:V106)/5</f>
+        <v>0.26541205368771414</v>
+      </c>
+      <c r="X106" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y106" s="48">
+        <f>(Y101*Y93)+(Y103*Y98)</f>
+        <v>8.2599867285846729E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
-        <v>164</v>
+      <c r="A107" s="27" t="s">
+        <v>163</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -9519,151 +9870,239 @@
       <c r="Q107" s="1">
         <v>2173000000</v>
       </c>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="31">
-        <f>V106*(1+Y107)/(Y108-Y107)</f>
-        <v>122775255906.20345</v>
-      </c>
-      <c r="W107" s="27" t="s">
+      <c r="R107" s="49">
+        <v>2621000000</v>
+      </c>
+      <c r="S107" s="49">
+        <v>3214000000</v>
+      </c>
+      <c r="T107" s="49">
+        <v>4024000000</v>
+      </c>
+      <c r="U107" s="49">
+        <v>5596000000</v>
+      </c>
+      <c r="V107" s="49">
+        <v>7006000000</v>
+      </c>
+      <c r="W107" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="X107" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y107" s="31">
+        <f>(SUM(R4:V4)/5)</f>
+        <v>0.20718207336870673</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.2">
+      <c r="R108" s="35"/>
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="51">
+        <f>V107*(1+Y108)/(Y109-Y108)</f>
+        <v>124673030310.34119</v>
+      </c>
+      <c r="W108" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="X107" s="54" t="s">
+      <c r="X108" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="Y107" s="55">
+      <c r="Y108" s="32">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R108" s="31">
-        <f t="shared" ref="R108:U108" si="29">R107+R106</f>
+    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.2">
+      <c r="R109" s="51">
+        <f t="shared" ref="R109:U109" si="29">R108+R107</f>
         <v>2621000000</v>
       </c>
-      <c r="S108" s="31">
+      <c r="S109" s="51">
         <f t="shared" si="29"/>
-        <v>3220000000</v>
-      </c>
-      <c r="T108" s="31">
+        <v>3214000000</v>
+      </c>
+      <c r="T109" s="51">
         <f t="shared" si="29"/>
-        <v>4093000000</v>
-      </c>
-      <c r="U108" s="31">
+        <v>4024000000</v>
+      </c>
+      <c r="U109" s="51">
         <f t="shared" si="29"/>
-        <v>5601000000</v>
-      </c>
-      <c r="V108" s="31">
-        <f>V107+V106</f>
-        <v>129783255906.20345</v>
-      </c>
-      <c r="W108" s="27" t="s">
+        <v>5596000000</v>
+      </c>
+      <c r="V109" s="51">
+        <f>V108+V107</f>
+        <v>131679030310.34119</v>
+      </c>
+      <c r="W109" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="X108" s="56" t="s">
+      <c r="X109" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="Y108" s="53">
-        <f>Y105</f>
-        <v>8.3506903096889046E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="64" t="s">
+      <c r="Y109" s="31">
+        <f>Y106</f>
+        <v>8.2599867285846729E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.2">
+      <c r="R110" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="S109" s="64"/>
-    </row>
-    <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R110" s="57" t="s">
+      <c r="S110" s="73"/>
+      <c r="T110" s="39"/>
+      <c r="U110" s="39"/>
+      <c r="V110" s="39"/>
+      <c r="W110" s="39"/>
+      <c r="X110" s="39"/>
+      <c r="Y110" s="39"/>
+    </row>
+    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R111" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="S110" s="48">
-        <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
-        <v>99351455573.155045</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="57" t="s">
+      <c r="S111" s="43">
+        <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
+        <v>100956167084.88872</v>
+      </c>
+      <c r="T111" s="39"/>
+      <c r="U111" s="39"/>
+      <c r="V111" s="39"/>
+      <c r="W111" s="39"/>
+      <c r="X111" s="39"/>
+      <c r="Y111" s="39"/>
+    </row>
+    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R112" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="S111" s="48">
+      <c r="S112" s="43">
         <f>Q40</f>
         <v>4280000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="57" t="s">
+      <c r="T112" s="39"/>
+      <c r="U112" s="39"/>
+      <c r="V112" s="39"/>
+      <c r="W112" s="39"/>
+      <c r="X112" s="39"/>
+      <c r="Y112" s="39"/>
+    </row>
+    <row r="113" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R113" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="S112" s="48">
-        <f>Y99</f>
+      <c r="S113" s="43">
+        <f>Y100</f>
         <v>2232000000</v>
       </c>
-    </row>
-    <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="57" t="s">
+      <c r="T113" s="39"/>
+      <c r="U113" s="39"/>
+      <c r="V113" s="39"/>
+      <c r="W113" s="39"/>
+      <c r="X113" s="39"/>
+      <c r="Y113" s="39"/>
+    </row>
+    <row r="114" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R114" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="S113" s="48">
-        <f>S110+S111-S112</f>
-        <v>101399455573.15504</v>
-      </c>
-    </row>
-    <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="57" t="s">
+      <c r="S114" s="43">
+        <f>S111+S112-S113</f>
+        <v>103004167084.88872</v>
+      </c>
+      <c r="T114" s="39"/>
+      <c r="U114" s="39"/>
+      <c r="V114" s="39"/>
+      <c r="W114" s="39"/>
+      <c r="X114" s="39"/>
+      <c r="Y114" s="39"/>
+    </row>
+    <row r="115" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R115" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="S114" s="57">
+      <c r="S115" s="55">
         <f>Q34*(1+(5*W16))</f>
-        <v>240126645.72531751</v>
-      </c>
-    </row>
-    <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="58" t="s">
+        <v>232660203.34081194</v>
+      </c>
+      <c r="T115" s="39"/>
+      <c r="U115" s="39"/>
+      <c r="V115" s="39"/>
+      <c r="W115" s="39"/>
+      <c r="X115" s="39"/>
+      <c r="Y115" s="39"/>
+    </row>
+    <row r="116" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R116" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="S115" s="59">
-        <f>S113/S114</f>
-        <v>422.2749010917621</v>
-      </c>
-    </row>
-    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="57" t="s">
+      <c r="S116" s="57">
+        <f>S114/S115</f>
+        <v>442.7236184179003</v>
+      </c>
+      <c r="T116" s="39"/>
+      <c r="U116" s="39"/>
+      <c r="V116" s="39"/>
+      <c r="W116" s="39"/>
+      <c r="X116" s="39"/>
+      <c r="Y116" s="39"/>
+    </row>
+    <row r="117" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R117" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="S116" s="60" cm="1">
-        <f t="array" ref="S116">_FV(A1,"Price")</f>
-        <v>565.6</v>
-      </c>
-    </row>
-    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="58" t="s">
+      <c r="S117" s="58" cm="1">
+        <f t="array" ref="S117">_FV(A1,"Price")</f>
+        <v>568.47</v>
+      </c>
+      <c r="T117" s="39"/>
+      <c r="U117" s="39"/>
+      <c r="V117" s="39"/>
+      <c r="W117" s="39"/>
+      <c r="X117" s="39"/>
+      <c r="Y117" s="39"/>
+    </row>
+    <row r="118" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R118" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="S117" s="61">
-        <f>S115/S116-1</f>
-        <v>-0.25340364021965689</v>
-      </c>
-    </row>
-    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="58" t="s">
+      <c r="S118" s="59">
+        <f>S116/S117-1</f>
+        <v>-0.2212014382150328</v>
+      </c>
+      <c r="T118" s="39"/>
+      <c r="U118" s="39"/>
+      <c r="V118" s="39"/>
+      <c r="W118" s="39"/>
+      <c r="X118" s="39"/>
+      <c r="Y118" s="39"/>
+    </row>
+    <row r="119" spans="18:25" ht="20" x14ac:dyDescent="0.2">
+      <c r="R119" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="S118" s="62" t="str">
-        <f>IF(S115&gt;S116,"BUY","SELL")</f>
+      <c r="S119" s="60" t="str">
+        <f>IF(S116&gt;S117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="T119" s="39"/>
+      <c r="U119" s="39"/>
+      <c r="V119" s="39"/>
+      <c r="W119" s="39"/>
+      <c r="X119" s="39"/>
+      <c r="Y119" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="R109:S109"/>
-    <mergeCell ref="X83:Y83"/>
+  <mergeCells count="7">
     <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="X104:Y104"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="R110:S110"/>
+    <mergeCell ref="R104:V104"/>
+    <mergeCell ref="X105:Y105"/>
+    <mergeCell ref="X99:Y99"/>
+    <mergeCell ref="X94:Y94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/NOW" display="ROIC.AI | NOW" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -9700,7 +10139,7 @@
     <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1373715/000137371523000035/0001373715-23-000035-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1373715/000137371523000035/0001373715-23-000035-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="R1" r:id="rId34" display="https://finbox.com/NYSE:NOW/explorer/revenue_proj" xr:uid="{74C398BD-6771-E044-B180-83E5CD7B712B}"/>
-    <hyperlink ref="W106" r:id="rId35" xr:uid="{0BC166D8-01B7-9F45-8E9B-43A4361487B3}"/>
+    <hyperlink ref="W107" r:id="rId35" xr:uid="{0BC166D8-01B7-9F45-8E9B-43A4361487B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId36"/>

--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0CD318-4FD1-7C49-88B9-2C397597A44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DDECC8-C7BE-EA4A-8216-8A6550892A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,18 +2513,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2538,15 +2538,15 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6289999999999998E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
@@ -2679,12 +2679,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>614.35990000000004</v>
-    <v>347.29</v>
-    <v>1</v>
-    <v>16.84</v>
-    <v>3.0528E-2</v>
-    <v>-0.28000000000000003</v>
-    <v>-4.9259999999999994E-4</v>
+    <v>351.25</v>
+    <v>0.99450000000000005</v>
+    <v>5.95</v>
+    <v>1.0026E-2</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -2692,25 +2690,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>574.25</v>
+    <v>610.87</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45216.998954131253</v>
+    <v>45232.999680000001</v>
     <v>0</v>
-    <v>548.79999999999995</v>
-    <v>115967880000</v>
+    <v>598.4</v>
+    <v>122883149999</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>549.66</v>
-    <v>79.403800000000004</v>
-    <v>551.63</v>
-    <v>568.47</v>
-    <v>568.19000000000005</v>
-    <v>204000000</v>
+    <v>601.21</v>
+    <v>77.581299999999999</v>
+    <v>593.48</v>
+    <v>599.42999999999995</v>
+    <v>205000000</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>1397296</v>
-    <v>986419</v>
+    <v>172</v>
+    <v>1284690</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2742,8 +2739,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2764,7 +2759,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2781,7 +2775,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2792,16 +2786,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2867,19 +2858,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2924,9 +2909,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2934,9 +2916,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3298,10 +3277,10 @@
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T102" sqref="T102"/>
+      <selection pane="bottomRight" activeCell="Q117" sqref="Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4417,19 +4396,19 @@
       </c>
       <c r="W16" s="64">
         <f>SUM(N35:R35)/5</f>
-        <v>2.8619356219629955E-2</v>
+        <v>2.9601988199387735E-2</v>
       </c>
       <c r="X16" s="65">
         <f>Y102/Q3</f>
-        <v>16.006608695652172</v>
+        <v>16.961097308350588</v>
       </c>
       <c r="Y16" s="65">
         <f>Y102/Q28</f>
-        <v>356.82424615384616</v>
+        <v>378.1019999969231</v>
       </c>
       <c r="Z16" s="66">
         <f>Y102/Q107</f>
-        <v>53.367639208467558</v>
+        <v>56.549999999539807</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4627,15 +4606,15 @@
       </c>
       <c r="X19" s="65">
         <f>Y102/R3</f>
-        <v>13.015474747474748</v>
+        <v>13.791599326487093</v>
       </c>
       <c r="Y19" s="65">
         <f>Y102/R28</f>
-        <v>56.29508737864078</v>
+        <v>59.65201456262136</v>
       </c>
       <c r="Z19" s="66">
         <f>Y102/R107</f>
-        <v>44.245661961083556</v>
+        <v>46.884070964898896</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4874,7 +4853,7 @@
       </c>
       <c r="Z22" s="69">
         <f>R107/Y102</f>
-        <v>2.2601085748915992E-2</v>
+        <v>2.1329205835147694E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -5544,7 +5523,7 @@
       </c>
       <c r="R33" s="1" cm="1">
         <f t="array" ref="R33">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>204000000</v>
+        <v>205000000</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -5601,7 +5580,7 @@
       </c>
       <c r="R34" s="1" cm="1">
         <f t="array" ref="R34">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>204000000</v>
+        <v>205000000</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5671,7 +5650,7 @@
       </c>
       <c r="R35" s="19">
         <f t="shared" si="23"/>
-        <v>2.2846193529368415E-3</v>
+        <v>7.1977792517257475E-3</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -9030,7 +9009,7 @@
       </c>
       <c r="Y95" s="34">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6289999999999998E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9096,7 +9075,7 @@
       </c>
       <c r="Y96" s="42" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>1</v>
+        <v>0.99450000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9227,7 +9206,7 @@
       </c>
       <c r="Y98" s="41">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>8.4000000000000005E-2</v>
+        <v>8.3806125000000009E-2</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9422,7 +9401,7 @@
       </c>
       <c r="Y101" s="41">
         <f>Y100/Y104</f>
-        <v>1.8883267901794825E-2</v>
+        <v>1.783956619176686E-2</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9488,7 +9467,7 @@
       </c>
       <c r="Y102" s="43" cm="1">
         <f t="array" ref="Y102">_FV(A1,"Market cap",TRUE)</f>
-        <v>115967880000</v>
+        <v>122883149999</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9554,7 +9533,7 @@
       </c>
       <c r="Y103" s="41">
         <f>Y102/Y104</f>
-        <v>0.98111673209820516</v>
+        <v>0.98216043380823315</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9622,7 +9601,7 @@
       </c>
       <c r="Y104" s="44">
         <f>Y100+Y102</f>
-        <v>118199880000</v>
+        <v>125115149999</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -9815,7 +9794,7 @@
       </c>
       <c r="Y106" s="48">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>8.2599867285846729E-2</v>
+        <v>8.2486838008789823E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9903,7 +9882,7 @@
       <c r="U108" s="35"/>
       <c r="V108" s="51">
         <f>V107*(1+Y108)/(Y109-Y108)</f>
-        <v>124673030310.34119</v>
+        <v>124918159508.12933</v>
       </c>
       <c r="W108" s="52" t="s">
         <v>144</v>
@@ -9934,7 +9913,7 @@
       </c>
       <c r="V109" s="51">
         <f>V108+V107</f>
-        <v>131679030310.34119</v>
+        <v>131924159508.12933</v>
       </c>
       <c r="W109" s="52" t="s">
         <v>141</v>
@@ -9944,7 +9923,7 @@
       </c>
       <c r="Y109" s="31">
         <f>Y106</f>
-        <v>8.2599867285846729E-2</v>
+        <v>8.2486838008789823E-2</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.2">
@@ -9965,7 +9944,7 @@
       </c>
       <c r="S111" s="43">
         <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
-        <v>100956167084.88872</v>
+        <v>101170849891.01892</v>
       </c>
       <c r="T111" s="39"/>
       <c r="U111" s="39"/>
@@ -10010,7 +9989,7 @@
       </c>
       <c r="S114" s="43">
         <f>S111+S112-S113</f>
-        <v>103004167084.88872</v>
+        <v>103218849891.01892</v>
       </c>
       <c r="T114" s="39"/>
       <c r="U114" s="39"/>
@@ -10025,7 +10004,7 @@
       </c>
       <c r="S115" s="55">
         <f>Q34*(1+(5*W16))</f>
-        <v>232660203.34081194</v>
+        <v>233660203.34081191</v>
       </c>
       <c r="T115" s="39"/>
       <c r="U115" s="39"/>
@@ -10040,7 +10019,7 @@
       </c>
       <c r="S116" s="57">
         <f>S114/S115</f>
-        <v>442.7236184179003</v>
+        <v>441.74766783227545</v>
       </c>
       <c r="T116" s="39"/>
       <c r="U116" s="39"/>
@@ -10055,7 +10034,7 @@
       </c>
       <c r="S117" s="58" cm="1">
         <f t="array" ref="S117">_FV(A1,"Price")</f>
-        <v>568.47</v>
+        <v>599.42999999999995</v>
       </c>
       <c r="T117" s="39"/>
       <c r="U117" s="39"/>
@@ -10070,7 +10049,7 @@
       </c>
       <c r="S118" s="59">
         <f>S116/S117-1</f>
-        <v>-0.2212014382150328</v>
+        <v>-0.26305378804485013</v>
       </c>
       <c r="T118" s="39"/>
       <c r="U118" s="39"/>

--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DDECC8-C7BE-EA4A-8216-8A6550892A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF298D-F013-0344-AC55-3C8E558378DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2541,7 +2541,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2678,11 +2678,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>614.35990000000004</v>
-    <v>351.25</v>
-    <v>0.99450000000000005</v>
-    <v>5.95</v>
-    <v>1.0026E-2</v>
+    <v>632.49</v>
+    <v>353.62</v>
+    <v>0.99770000000000003</v>
+    <v>-5.57</v>
+    <v>-8.907E-3</v>
+    <v>-9.76</v>
+    <v>-1.5747999999999998E-2</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -2690,24 +2692,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>610.87</v>
+    <v>632.49</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.999680000001</v>
+    <v>45240.039923610937</v>
     <v>0</v>
-    <v>598.4</v>
-    <v>122883149999</v>
+    <v>619.32000000000005</v>
+    <v>128192600000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>601.21</v>
-    <v>77.581299999999999</v>
-    <v>593.48</v>
-    <v>599.42999999999995</v>
+    <v>625.1</v>
+    <v>80.212500000000006</v>
+    <v>625.33000000000004</v>
+    <v>619.76</v>
+    <v>610</v>
     <v>205000000</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>172</v>
-    <v>1284690</v>
+    <v>1215209</v>
+    <v>1361306</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2739,6 +2742,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2759,6 +2764,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2775,7 +2781,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2786,13 +2792,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2858,13 +2867,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2909,6 +2924,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2916,6 +2934,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3277,10 +3298,10 @@
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q117" sqref="Q117"/>
+      <selection pane="bottomRight" activeCell="R101" sqref="R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4400,15 +4421,15 @@
       </c>
       <c r="X16" s="65">
         <f>Y102/Q3</f>
-        <v>16.961097308350588</v>
+        <v>17.693940648723256</v>
       </c>
       <c r="Y16" s="65">
         <f>Y102/Q28</f>
-        <v>378.1019999969231</v>
+        <v>394.43876923076925</v>
       </c>
       <c r="Z16" s="66">
         <f>Y102/Q107</f>
-        <v>56.549999999539807</v>
+        <v>58.993373216751039</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -4606,15 +4627,15 @@
       </c>
       <c r="X19" s="65">
         <f>Y102/R3</f>
-        <v>13.791599326487093</v>
+        <v>14.387497194163862</v>
       </c>
       <c r="Y19" s="65">
         <f>Y102/R28</f>
-        <v>59.65201456262136</v>
+        <v>62.229417475728155</v>
       </c>
       <c r="Z19" s="66">
         <f>Y102/R107</f>
-        <v>46.884070964898896</v>
+        <v>48.909805417779474</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4853,7 +4874,7 @@
       </c>
       <c r="Z22" s="69">
         <f>R107/Y102</f>
-        <v>2.1329205835147694E-2</v>
+        <v>2.0445797963376981E-2</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9009,7 +9030,7 @@
       </c>
       <c r="Y95" s="34">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9075,7 +9096,7 @@
       </c>
       <c r="Y96" s="42" cm="1">
         <f t="array" ref="Y96">_FV(A1,"Beta")</f>
-        <v>0.99450000000000005</v>
+        <v>0.99770000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9206,7 +9227,7 @@
       </c>
       <c r="Y98" s="41">
         <f>(Y95)+((Y96)*(Y97-Y95))</f>
-        <v>8.3806125000000009E-2</v>
+        <v>8.3910484000000007E-2</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9401,7 +9422,7 @@
       </c>
       <c r="Y101" s="41">
         <f>Y100/Y104</f>
-        <v>1.783956619176686E-2</v>
+        <v>1.7113335981095591E-2</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9467,7 +9488,7 @@
       </c>
       <c r="Y102" s="43" cm="1">
         <f t="array" ref="Y102">_FV(A1,"Market cap",TRUE)</f>
-        <v>122883149999</v>
+        <v>128192600000</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -9533,7 +9554,7 @@
       </c>
       <c r="Y103" s="41">
         <f>Y102/Y104</f>
-        <v>0.98216043380823315</v>
+        <v>0.98288666401890445</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9601,7 +9622,7 @@
       </c>
       <c r="Y104" s="44">
         <f>Y100+Y102</f>
-        <v>125115149999</v>
+        <v>130424600000</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -9794,7 +9815,7 @@
       </c>
       <c r="Y106" s="48">
         <f>(Y101*Y93)+(Y103*Y98)</f>
-        <v>8.2486838008789823E-2</v>
+        <v>8.2643117881300063E-2</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9882,7 +9903,7 @@
       <c r="U108" s="35"/>
       <c r="V108" s="51">
         <f>V107*(1+Y108)/(Y109-Y108)</f>
-        <v>124918159508.12933</v>
+        <v>124579486050.487</v>
       </c>
       <c r="W108" s="52" t="s">
         <v>144</v>
@@ -9913,7 +9934,7 @@
       </c>
       <c r="V109" s="51">
         <f>V108+V107</f>
-        <v>131924159508.12933</v>
+        <v>131585486050.487</v>
       </c>
       <c r="W109" s="52" t="s">
         <v>141</v>
@@ -9923,7 +9944,7 @@
       </c>
       <c r="Y109" s="31">
         <f>Y106</f>
-        <v>8.2486838008789823E-2</v>
+        <v>8.2643117881300063E-2</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.2">
@@ -9944,7 +9965,7 @@
       </c>
       <c r="S111" s="43">
         <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
-        <v>101170849891.01892</v>
+        <v>100874243392.51231</v>
       </c>
       <c r="T111" s="39"/>
       <c r="U111" s="39"/>
@@ -9989,7 +10010,7 @@
       </c>
       <c r="S114" s="43">
         <f>S111+S112-S113</f>
-        <v>103218849891.01892</v>
+        <v>102922243392.51231</v>
       </c>
       <c r="T114" s="39"/>
       <c r="U114" s="39"/>
@@ -10019,7 +10040,7 @@
       </c>
       <c r="S116" s="57">
         <f>S114/S115</f>
-        <v>441.74766783227545</v>
+        <v>440.47827538004867</v>
       </c>
       <c r="T116" s="39"/>
       <c r="U116" s="39"/>
@@ -10034,7 +10055,7 @@
       </c>
       <c r="S117" s="58" cm="1">
         <f t="array" ref="S117">_FV(A1,"Price")</f>
-        <v>599.42999999999995</v>
+        <v>619.76</v>
       </c>
       <c r="T117" s="39"/>
       <c r="U117" s="39"/>
@@ -10049,7 +10070,7 @@
       </c>
       <c r="S118" s="59">
         <f>S116/S117-1</f>
-        <v>-0.26305378804485013</v>
+        <v>-0.28927604979338994</v>
       </c>
       <c r="T118" s="39"/>
       <c r="U118" s="39"/>

--- a/Technology/Software/ServiceNow.xlsx
+++ b/Technology/Software/ServiceNow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593373A-162E-9B4B-A663-A7D8A21F4F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B994DC0-16B3-A448-90F7-7685A56036E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1729,6 +1729,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1748,7 +1750,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1761,6 +1763,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1886,13 +1890,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>694.76499999999999</v>
+    <v>701.11</v>
     <v>353.62</v>
-    <v>1.0530999999999999</v>
-    <v>5.0599999999999996</v>
-    <v>7.3790000000000001E-3</v>
-    <v>0.06</v>
-    <v>8.6859999999999992E-5</v>
+    <v>1.0533999999999999</v>
+    <v>11.24</v>
+    <v>1.6345000000000002E-2</v>
+    <v>1.42</v>
+    <v>2.0309999999999998E-3</v>
     <v>USD</v>
     <v>ServiceNow, Inc. is a digital workflow company. The Company helps global enterprises across industries, universities and governments to digitize their workflows. Its technology platform, Now Platform, enables workflows to connect systems, silos, departments and processes with digital workflows. It categorizes workflow applications into four primary areas, such as technology, customer and industry, employee and creator. Its technology workflows give IT departments the ability to plan, build, operate, and service across the entire technology lifecycle. Its customer and industry workflows help organizations reimagine the customer experience and customer loyalty. Its employee workflows help customers simplify how their employees get the services they need, creating a familiar, to get work done from wherever an employee may be at home, in the workplace or in the field. Its creator workflows enable its customers to create, test, and deploy their own applications on the Now Platform.</v>
     <v>20433</v>
@@ -1900,25 +1904,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2225 Lawson Ln, SANTA CLARA, CA, 95054-3311 US</v>
-    <v>694.76499999999999</v>
+    <v>701.11</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.012418842191</v>
+    <v>45269.040310335156</v>
     <v>0</v>
-    <v>683.28420000000006</v>
-    <v>141612000000</v>
+    <v>688.56</v>
+    <v>143278600000</v>
     <v>SERVICENOW, INC.</v>
     <v>SERVICENOW, INC.</v>
-    <v>685.45</v>
-    <v>88.751900000000006</v>
-    <v>685.74</v>
-    <v>690.8</v>
-    <v>690.85</v>
+    <v>689.45</v>
+    <v>89.003</v>
+    <v>687.68</v>
+    <v>698.92</v>
+    <v>700.5</v>
     <v>205000000</v>
     <v>NOW</v>
     <v>SERVICENOW, INC. (XNYS:NOW)</v>
-    <v>1453346</v>
-    <v>1378124</v>
+    <v>1083831</v>
+    <v>1172119</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -14079,7 +14083,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>141612000000</v>
+        <v>143278600000</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>201</v>
@@ -14107,7 +14111,7 @@
       </c>
       <c r="I3" s="36">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>104322580015.93188</v>
+        <v>103514283175.80173</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>205</v>
@@ -14159,14 +14163,14 @@
       </c>
       <c r="I4" s="46">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>83522108027.231201</v>
+        <v>82816240646.338257</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="47" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.3790000000000001E-3</v>
+        <v>1.6345000000000002E-2</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>213</v>
@@ -14211,14 +14215,14 @@
       </c>
       <c r="I5" s="46">
         <f>I4+G5-G6</f>
-        <v>86057108027.231201</v>
+        <v>85351240646.338257</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="50" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>690.8</v>
+        <v>698.92</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>220</v>
@@ -14238,7 +14242,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <f>O20/F10</f>
-        <v>15.854455888938647</v>
+        <v>16.041043439319303</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>222</v>
@@ -14266,14 +14270,14 @@
       </c>
       <c r="I6" s="47">
         <f>N25</f>
-        <v>9.3492123171309505E-2</v>
+        <v>9.4026947593936788E-2</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="55">
         <f>I5/G4</f>
-        <v>412.23797074593068</v>
+        <v>408.85666566392661</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>226</v>
@@ -14293,14 +14297,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <f>O20/F12</f>
-        <v>65.958081043316255</v>
+        <v>66.734326967862131</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="59">
         <f>F15/A3</f>
-        <v>1.911561167132729E-2</v>
+        <v>1.8893261101099536E-2</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>229</v>
@@ -14327,7 +14331,7 @@
       </c>
       <c r="K7" s="65">
         <f>K6/K5-1</f>
-        <v>-0.40324555479743673</v>
+        <v>-0.41501650308486437</v>
       </c>
       <c r="L7" s="66" t="s">
         <v>232</v>
@@ -14654,7 +14658,7 @@
       </c>
       <c r="O14" s="85">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -14806,7 +14810,7 @@
       </c>
       <c r="O17" s="95">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -14889,7 +14893,7 @@
       </c>
       <c r="O20" s="101">
         <f>A3</f>
-        <v>141612000000</v>
+        <v>143278600000</v>
       </c>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
@@ -14919,7 +14923,7 @@
       </c>
       <c r="O21" s="101">
         <f>O19+O20</f>
-        <v>143824000000</v>
+        <v>145490600000</v>
       </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
@@ -14947,7 +14951,7 @@
       </c>
       <c r="O22" s="103">
         <f>(O19/O21)</f>
-        <v>1.5379908777394593E-2</v>
+        <v>1.52037313750854E-2</v>
       </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
@@ -14972,7 +14976,7 @@
       </c>
       <c r="O23" s="104">
         <f>O20/O21</f>
-        <v>0.98462009122260541</v>
+        <v>0.98479626862491465</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -15016,7 +15020,7 @@
       <c r="M25" s="68"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.3492123171309505E-2</v>
+        <v>9.4026947593936788E-2</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="40"/>
